--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42FF69-4296-428C-89E8-64E9FEAFFB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3A7C6-598F-4411-B6A2-794F79F7D4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="90" windowWidth="27315" windowHeight="15360" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="給料管理(製造中)" sheetId="4" r:id="rId6"/>
     <sheet name="給料更新（製造中）" sheetId="14" r:id="rId7"/>
     <sheet name="社員情報変更" sheetId="17" r:id="rId8"/>
-    <sheet name="一般経費" sheetId="15" r:id="rId9"/>
+    <sheet name="一般経費(製造中）" sheetId="15" r:id="rId9"/>
     <sheet name="勤怠リスト" sheetId="16" r:id="rId10"/>
     <sheet name="稼働時間入力20210305製造完" sheetId="11" r:id="rId11"/>
     <sheet name="交通費入力20210305製造完" sheetId="10" r:id="rId12"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="283">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -2877,6 +2877,26 @@
     </rPh>
     <rPh sb="67" eb="69">
       <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認および精算：</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3247,6 +3267,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3280,8 +3309,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3298,20 +3327,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14898,6 +14918,69 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6842104A-0A4E-4DE2-92C2-05ADE4761E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="13230225"/>
+          <a:ext cx="11363325" cy="4124325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -15722,6 +15805,930 @@
             </a:rPr>
             <a:t>精算</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>39000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>48481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5062B3D8-643E-4E03-8BF0-668312A30BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="6619875"/>
+          <a:ext cx="6449325" cy="6134956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>77734</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD44E55-0963-48E5-8302-95D8563F5BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13763625"/>
+          <a:ext cx="10993384" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A824452B-96B6-4492-9553-26662CC426AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="13315950"/>
+          <a:ext cx="1190625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最近</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B710A3C4-C6DE-4A18-A499-377ADCC64B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687051" y="16363950"/>
+          <a:ext cx="609600" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45850E23-D2D5-4C40-91DB-3E9865C731DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="504825" y="14878050"/>
+          <a:ext cx="11363325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>58607</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C256C721-0A46-4CCF-9A6A-2C34A6DFDCE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="15335250"/>
+          <a:ext cx="10440857" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129999ED-0888-4A36-89AB-4D8EB23FA6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="14925675"/>
+          <a:ext cx="1162049" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力し、登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E874DE-091C-4AE4-BABE-F3F5F5EED554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="14068425"/>
+          <a:ext cx="752475" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43350D5A-22C9-4BAD-91D9-537C21573AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="14316075"/>
+          <a:ext cx="752475" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663C887A-1C93-4B2C-BBC8-B827F24D53E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="15363825"/>
+          <a:ext cx="752475" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CC9B6D-9EA3-43CD-A952-BC22236D034F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="18068925"/>
+          <a:ext cx="11363325" cy="4124325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>77734</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A8120F-F864-426F-A8E1-E632CAA8D70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="18602325"/>
+          <a:ext cx="10993384" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB0391B-ED19-4C23-9F54-9ED534A086C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10810876" y="20726400"/>
+          <a:ext cx="609600" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF77674C-C186-4278-937F-E53DCF09A647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="19973924"/>
+          <a:ext cx="2038350" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6096"/>
+            <a:gd name="adj2" fmla="val -128409"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>精算状況、精算日付を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 下 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD89A86A-DCC7-413D-B50E-323776B31E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="12668250"/>
+          <a:ext cx="638175" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -17377,7 +18384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8DAADB-C609-419F-A68A-3A533462CC96}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -17424,7 +18431,7 @@
       <c r="C4" s="30">
         <v>44601</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="33" t="s">
         <v>280</v>
       </c>
       <c r="E4" s="29" t="s">
@@ -17589,102 +18596,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="35" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -17770,40 +18777,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="48" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="48" t="s">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="48"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -17825,46 +18832,46 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="42" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="43">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="46">
         <v>180</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="43" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="43">
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="46">
         <v>7777</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="39" t="s">
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="41"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="44"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -17880,46 +18887,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="43">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="46">
         <v>200</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43" t="s">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="43">
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="46">
         <v>1234</v>
       </c>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="39">
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="42">
         <v>2345</v>
       </c>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="44"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -17935,46 +18942,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="43">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="46">
         <v>210</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="43">
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="46">
         <v>3456</v>
       </c>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="39">
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="42">
         <v>234</v>
       </c>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="41"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="44"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -17990,32 +18997,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="41"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="44"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -18029,32 +19036,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="44"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -18068,32 +19075,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="41"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -18107,32 +19114,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="44"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -18146,32 +19153,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="44"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -18185,32 +19192,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="44"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -18866,6 +19873,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -18882,69 +19952,6 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18967,92 +19974,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19279,108 +20286,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="36" t="s">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19623,108 +20630,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="36" t="s">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19973,94 +20980,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21285,100 +22292,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="35" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21462,38 +22469,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="48" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="48"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -21511,357 +22518,357 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="41"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="44"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="41"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="44"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="41"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="44"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="44"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="44"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="41"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="44"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="44"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="44"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="44"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -22461,6 +23468,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -22485,88 +23574,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22592,92 +23599,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22792,46 +23799,46 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34" t="s">
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34" t="s">
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -22839,38 +23846,38 @@
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -22878,34 +23885,34 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -22913,34 +23920,34 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -22948,34 +23955,34 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -22983,34 +23990,34 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -23018,34 +24025,34 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -23053,34 +24060,34 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -23088,34 +24095,34 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -23123,34 +24130,34 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -23158,34 +24165,34 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -23193,34 +24200,34 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -24327,6 +25334,76 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -24339,76 +25416,6 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24448,17 +25455,17 @@
       <c r="C32" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
       <c r="M32" s="21" t="s">
         <v>119</v>
       </c>
@@ -24470,17 +25477,17 @@
       <c r="C33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="20" t="s">
         <v>120</v>
       </c>
@@ -24492,17 +25499,17 @@
       <c r="C34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="19"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
@@ -24512,17 +25519,17 @@
       <c r="C35" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
@@ -24532,17 +25539,17 @@
       <c r="C36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
       <c r="M36" s="19"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
@@ -24552,17 +25559,17 @@
       <c r="C37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
       <c r="M37" s="19" t="s">
         <v>121</v>
       </c>
@@ -24670,92 +25677,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26178,92 +27185,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26562,102 +27569,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="35" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26743,40 +27750,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="48" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="48" t="s">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="48"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -26802,379 +27809,379 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="42" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="43">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="46">
         <v>255555</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="43">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="46">
         <v>6666</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="43">
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="46">
         <v>7777</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="39" t="s">
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="39" t="s">
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="39" t="s">
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="41"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="44"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="41"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="44"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="41"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="44"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="44"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="44"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="41"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="44"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="44"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="44"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="44"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -27946,10 +28953,10 @@
       </c>
     </row>
     <row r="71" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="32" t="s">
         <v>246</v>
       </c>
       <c r="O71" t="s">
@@ -27957,7 +28964,7 @@
       </c>
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D72" s="50"/>
+      <c r="D72" s="31"/>
       <c r="I72" t="s">
         <v>247</v>
       </c>
@@ -27978,7 +28985,7 @@
       </c>
     </row>
     <row r="76" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="31" t="s">
         <v>243</v>
       </c>
       <c r="E76" t="s">
@@ -27994,7 +29001,7 @@
       </c>
     </row>
     <row r="79" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="31" t="s">
         <v>250</v>
       </c>
       <c r="E79" t="s">
@@ -28015,10 +29022,10 @@
       </c>
     </row>
     <row r="83" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="E83" s="51" t="s">
+      <c r="E83" s="32" t="s">
         <v>257</v>
       </c>
       <c r="O83" t="s">
@@ -28036,10 +29043,10 @@
       </c>
     </row>
     <row r="87" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E87" s="51" t="s">
+      <c r="E87" s="32" t="s">
         <v>262</v>
       </c>
       <c r="O87" t="s">
@@ -28055,10 +29062,10 @@
       </c>
     </row>
     <row r="90" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E90" s="51" t="s">
+      <c r="E90" s="32" t="s">
         <v>266</v>
       </c>
       <c r="Q90" t="s">
@@ -28084,18 +29091,18 @@
       <c r="C94" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="50"/>
+      <c r="D94" s="31"/>
       <c r="L94" s="25" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="95" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C95" s="25"/>
-      <c r="D95" s="50"/>
+      <c r="D95" s="31"/>
       <c r="L95" s="25"/>
     </row>
     <row r="96" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="31" t="s">
         <v>271</v>
       </c>
       <c r="E96" t="s">
@@ -28122,6 +29129,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -28146,88 +29235,6 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28250,94 +29257,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -29695,92 +30702,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -31284,10 +32291,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F909F318-5125-4BF4-9275-FE8C70D2F89E}">
-  <dimension ref="A1:AO27"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="AX83" sqref="AX83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31296,108 +32306,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="34" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="36" t="s">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -31619,6 +32629,16 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="9"/>
     </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
@@ -31634,6 +32654,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3A7C6-598F-4411-B6A2-794F79F7D4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8BE0B-DE9F-426E-BA8B-0B8F6AA725EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="285" windowWidth="25050" windowHeight="15015" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="298">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -2460,31 +2460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（⇒月ごとデータ持ち、勤怠テーブル更新時、同時更新）</t>
-    <rPh sb="2" eb="3">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>交通情報テーブル：</t>
     <rPh sb="0" eb="2">
       <t>コウツウ</t>
@@ -2897,6 +2872,184 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（⇒月ごとデータ持ち、勤怠テーブル更新時）</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度ごと持ち、契約変更ごっと、稼働期間を更新</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約情報管理機能の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本給管理</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約情報管理</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名：</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいうえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他１：</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※契約更新時、基本給稼働時間も更新</t>
+    <rPh sb="1" eb="3">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2976,7 +3129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3175,13 +3328,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3300,17 +3510,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3327,11 +3528,38 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13778,6 +14006,112 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F8BD52-F3C7-4A68-B321-C96DE9B2169D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8150087" y="18379109"/>
+          <a:ext cx="505239" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40E7BC6-DAD8-4FD5-8049-A9E35F4B1097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4464326" y="19638065"/>
+          <a:ext cx="4224131" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18432,7 +18766,7 @@
         <v>44601</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>167</v>
@@ -18665,20 +18999,20 @@
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
       <c r="AC2" s="38" t="s">
         <v>8</v>
       </c>
@@ -18793,24 +19127,24 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="52" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="52" t="s">
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="45"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -18842,36 +19176,36 @@
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="42" t="s">
         <v>170</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="46">
+      <c r="L6" s="43">
         <v>180</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="46" t="s">
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="46">
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="43">
         <v>7777</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="42" t="s">
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="44"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -18897,36 +19231,36 @@
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="42" t="s">
         <v>170</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="46">
+      <c r="L7" s="43">
         <v>200</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="46" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="46">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="43">
         <v>1234</v>
       </c>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="42">
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="49">
         <v>2345</v>
       </c>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="51"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -18952,36 +19286,36 @@
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="42" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="46">
+      <c r="L8" s="43">
         <v>210</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="46" t="s">
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="46">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="43">
         <v>3456</v>
       </c>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="42">
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="49">
         <v>234</v>
       </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="44"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="51"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -19003,26 +19337,26 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="51"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -19042,26 +19376,26 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="51"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -19081,26 +19415,26 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="51"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -19120,26 +19454,26 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="51"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -19159,26 +19493,26 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="44"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="51"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -19198,26 +19532,26 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="51"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -19873,69 +20207,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -19952,6 +20223,69 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22361,20 +22695,20 @@
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
       <c r="AC2" s="38" t="s">
         <v>8</v>
       </c>
@@ -22485,22 +22819,22 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="52" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="48"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="45"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -22528,35 +22862,35 @@
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
-      <c r="H6" s="51"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="44"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -22567,35 +22901,35 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="51"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="44"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="51"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -22606,35 +22940,35 @@
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="44"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="51"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -22645,35 +22979,35 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="51"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -22684,35 +23018,35 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="51"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -22723,35 +23057,35 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="44"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="51"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -22762,35 +23096,35 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="44"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="51"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -22801,35 +23135,35 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="44"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="51"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -22840,35 +23174,35 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="44"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="51"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -23468,64 +23802,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
@@ -23550,30 +23850,64 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25334,76 +25668,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -25416,6 +25680,76 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27552,10 +27886,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AK99"/>
+  <dimension ref="A1:AP108"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q105" sqref="Q105"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB84" sqref="AB84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27638,20 +27972,20 @@
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
       <c r="AC2" s="38" t="s">
         <v>8</v>
       </c>
@@ -27766,24 +28100,24 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="52" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="52" t="s">
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="45"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -27819,51 +28153,51 @@
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="42" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="46">
+      <c r="L6" s="43">
         <v>255555</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="46">
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="43">
         <v>6666</v>
       </c>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="46">
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="43">
         <v>7777</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="42" t="s">
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="42" t="s">
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="42" t="s">
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="42" t="s">
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="44"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
@@ -27880,35 +28214,35 @@
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="51"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="44"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="51"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -27919,35 +28253,35 @@
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="44"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="51"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -27958,35 +28292,35 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="51"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -27997,35 +28331,35 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="51"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -28036,35 +28370,35 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="44"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="51"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -28075,35 +28409,35 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="44"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="51"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -28114,35 +28448,35 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="44"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="51"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -28153,35 +28487,35 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="44"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="51"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -28947,12 +29281,12 @@
       <c r="AJ33" s="5"/>
       <c r="AK33" s="6"/>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:42" x14ac:dyDescent="0.4">
       <c r="C70" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:42" x14ac:dyDescent="0.4">
       <c r="D71" s="31" t="s">
         <v>240</v>
       </c>
@@ -28960,257 +29294,406 @@
         <v>246</v>
       </c>
       <c r="O71" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="3:42" x14ac:dyDescent="0.4">
       <c r="D72" s="31"/>
       <c r="I72" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="O72" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I73" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:42" x14ac:dyDescent="0.4">
       <c r="I74" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="AF74" s="55"/>
+      <c r="AG74" s="57"/>
+      <c r="AH74" s="57"/>
+      <c r="AI74" s="57"/>
+      <c r="AJ74" s="57"/>
+      <c r="AK74" s="57"/>
+      <c r="AL74" s="57"/>
+      <c r="AM74" s="57"/>
+      <c r="AN74" s="57"/>
+      <c r="AO74" s="57"/>
+      <c r="AP74" s="56"/>
+    </row>
+    <row r="75" spans="3:42" x14ac:dyDescent="0.4">
       <c r="I75" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D76" s="31" t="s">
+      <c r="O75" t="s">
+        <v>285</v>
+      </c>
+      <c r="S75" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
+      <c r="AM75" s="2"/>
+      <c r="AN75" s="2"/>
+      <c r="AO75" s="2"/>
+      <c r="AP75" s="3"/>
+    </row>
+    <row r="76" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AM76" s="2"/>
+      <c r="AN76" s="2"/>
+      <c r="AO76" s="2"/>
+      <c r="AP76" s="3"/>
+    </row>
+    <row r="77" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O77" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="P77" s="56"/>
+      <c r="R77" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="S77" s="56"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="2"/>
+      <c r="AM77" s="2"/>
+      <c r="AN77" s="2"/>
+      <c r="AO77" s="2"/>
+      <c r="AP77" s="3"/>
+    </row>
+    <row r="78" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O78" s="55"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="57"/>
+      <c r="Z78" s="57"/>
+      <c r="AA78" s="57"/>
+      <c r="AB78" s="57"/>
+      <c r="AC78" s="57"/>
+      <c r="AD78" s="56"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="2"/>
+      <c r="AN78" s="2"/>
+      <c r="AO78" s="2"/>
+      <c r="AP78" s="3"/>
+    </row>
+    <row r="79" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O79" s="1"/>
+      <c r="P79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD79" s="54"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="2"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="3"/>
+    </row>
+    <row r="80" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O80" s="4"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="6"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2"/>
+      <c r="AI80" s="2"/>
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="2"/>
+      <c r="AM80" s="2"/>
+      <c r="AN80" s="2"/>
+      <c r="AO80" s="2"/>
+      <c r="AP80" s="3"/>
+    </row>
+    <row r="81" spans="4:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O81" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="P81" s="54"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="2"/>
+      <c r="AM81" s="2"/>
+      <c r="AN81" s="2"/>
+      <c r="AO81" s="2"/>
+      <c r="AP81" s="3"/>
+    </row>
+    <row r="82" spans="4:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AO82" s="2"/>
+      <c r="AP82" s="3"/>
+    </row>
+    <row r="83" spans="4:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN83" s="54"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="3"/>
+    </row>
+    <row r="84" spans="4:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF84" s="4"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="5"/>
+      <c r="AP84" s="6"/>
+    </row>
+    <row r="85" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="D85" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E85" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="I77" t="s">
+    <row r="86" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="I86" t="s">
         <v>245</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L86" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D79" s="31" t="s">
+    <row r="88" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="D88" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="I89" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="I80" t="s">
+    <row r="90" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="I90" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="I81" t="s">
+      <c r="L90" t="s">
         <v>254</v>
       </c>
-      <c r="L81" t="s">
+    </row>
+    <row r="92" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="D92" s="31" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D83" s="31" t="s">
+      <c r="E92" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="O92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="I93" t="s">
         <v>257</v>
       </c>
-      <c r="O83" t="s">
+    </row>
+    <row r="94" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="L94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="4:42" x14ac:dyDescent="0.4">
+      <c r="D96" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="E96" s="32" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="I84" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="L85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D87" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" s="32" t="s">
+      <c r="O96" t="s">
         <v>262</v>
       </c>
-      <c r="O87" t="s">
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="I97" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="I88" t="s">
+      <c r="L97" t="s">
         <v>264</v>
       </c>
-      <c r="L88" t="s">
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D99" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" s="32" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D90" s="31" t="s">
+      <c r="Q99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="I100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="I101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="L102" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C103" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="L103" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C104" s="25"/>
+      <c r="D104" s="31"/>
+      <c r="L104" s="25"/>
+    </row>
+    <row r="105" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D105" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E90" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="I91" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="I92" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="L93" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C94" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" s="31"/>
-      <c r="L94" s="25" t="s">
+      <c r="E105" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C95" s="25"/>
-      <c r="D95" s="31"/>
-      <c r="L95" s="25"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D96" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="Q105" t="s">
         <v>274</v>
       </c>
-      <c r="Q96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I97" t="s">
+    </row>
+    <row r="106" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="I106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="I107" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I98" t="s">
+    <row r="108" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="I108" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I99" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -29235,6 +29718,88 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29324,7 +29889,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -32296,8 +32861,8 @@
   </sheetPr>
   <dimension ref="A1:AO75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="AX83" sqref="AX83"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="AU74" sqref="AU74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32631,12 +33196,12 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8BE0B-DE9F-426E-BA8B-0B8F6AA725EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B31D447-3315-435E-AF02-DA2DB50B0A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="285" windowWidth="25050" windowHeight="15015" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="300" windowWidth="25050" windowHeight="15015" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="316">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -3053,12 +3053,176 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>EMSで管理。　新規、更新。勤怠ファイルアップロード機能。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次期、勤怠ファイルダウンロード</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMSで管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ_厚生子育徴収率</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠テーブル</t>
+  </si>
+  <si>
+    <t>基本（加算）分決める</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本給</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業代</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通費</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控除部決める</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚生</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雇用</t>
+    <rPh sb="0" eb="2">
+      <t>コヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>源泉</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住民税</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウミンゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動計算：</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括作成</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ_厚生子育徴収率</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3113,6 +3277,14 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3486,6 +3658,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3510,8 +3700,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3528,38 +3727,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12678,8 +12850,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>147778</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>272017</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>66767</xdr:rowOff>
     </xdr:to>
@@ -14112,6 +14284,119 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F89F257-8052-4D3E-AC04-528E0DE8080C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4654826" y="26785957"/>
+          <a:ext cx="563217" cy="347869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34957BE5-E876-4249-86F5-34A0CA73F81A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8150087" y="18379109"/>
+          <a:ext cx="505239" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18930,102 +19215,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="38" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19111,40 +19396,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="48" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="48" t="s">
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="54"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -19166,46 +19451,46 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="42" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="43">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="52">
         <v>180</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="43" t="s">
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="43">
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="52">
         <v>7777</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="49" t="s">
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="51"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="50"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -19221,46 +19506,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="43">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="52">
         <v>200</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="43">
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="52">
         <v>1234</v>
       </c>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="49">
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="48">
         <v>2345</v>
       </c>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="51"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="50"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -19276,46 +19561,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="43">
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="52">
         <v>210</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43" t="s">
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="43">
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="52">
         <v>3456</v>
       </c>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="49">
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="48">
         <v>234</v>
       </c>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="51"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="50"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -19331,32 +19616,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="51"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="50"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -19370,32 +19655,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="51"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="50"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -19409,32 +19694,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="51"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -19448,32 +19733,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="51"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -19487,32 +19772,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="51"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -19526,32 +19811,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="51"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -20207,6 +20492,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -20223,69 +20571,6 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20308,92 +20593,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -20620,108 +20905,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="39" t="s">
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -20964,108 +21249,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="39" t="s">
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21314,94 +21599,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22626,100 +22911,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="38" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22803,38 +23088,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="48" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="54"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -22852,357 +23137,357 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="51"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="50"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="51"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="50"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="51"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="50"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="51"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="50"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="51"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="50"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="51"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="50"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="51"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="50"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="51"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="50"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="51"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="50"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -23802,6 +24087,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -23826,88 +24193,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23933,92 +24218,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24133,46 +24418,46 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37" t="s">
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37" t="s">
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -24180,38 +24465,38 @@
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -24219,34 +24504,34 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -24254,34 +24539,34 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -24289,34 +24574,34 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -24324,34 +24609,34 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -24359,34 +24644,34 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -24394,34 +24679,34 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -24429,34 +24714,34 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -24464,34 +24749,34 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -24499,34 +24784,34 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -24534,34 +24819,34 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -25668,6 +25953,76 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -25680,76 +26035,6 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25789,17 +26074,17 @@
       <c r="C32" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
       <c r="M32" s="21" t="s">
         <v>119</v>
       </c>
@@ -25811,17 +26096,17 @@
       <c r="C33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
       <c r="M33" s="20" t="s">
         <v>120</v>
       </c>
@@ -25833,17 +26118,17 @@
       <c r="C34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="19"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
@@ -25853,17 +26138,17 @@
       <c r="C35" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
@@ -25873,17 +26158,17 @@
       <c r="C36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="19"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
@@ -25893,17 +26178,17 @@
       <c r="C37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="19" t="s">
         <v>121</v>
       </c>
@@ -26011,92 +26296,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -27519,92 +27804,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -27886,10 +28171,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AP108"/>
+  <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB84" sqref="AB84"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN94" sqref="AN94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27899,106 +28184,108 @@
     <col min="27" max="27" width="3.75" customWidth="1"/>
     <col min="28" max="32" width="3.625" customWidth="1"/>
     <col min="33" max="33" width="4.25" customWidth="1"/>
-    <col min="34" max="66" width="3.625" customWidth="1"/>
+    <col min="34" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="5.5" customWidth="1"/>
+    <col min="47" max="66" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="38" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -28084,40 +28371,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="48" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="48" t="s">
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="54"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -28143,379 +28430,379 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="42" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="43">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="52">
         <v>255555</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="43">
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="52">
         <v>6666</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="43">
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="52">
         <v>7777</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="49" t="s">
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="49" t="s">
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="49" t="s">
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="49" t="s">
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="51"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="50"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="51"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="50"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="51"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="50"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="51"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="50"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="51"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="50"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="51"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="50"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="51"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="50"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="51"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="50"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="51"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="50"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -29318,17 +29605,17 @@
       <c r="I74" t="s">
         <v>242</v>
       </c>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="57"/>
-      <c r="AH74" s="57"/>
-      <c r="AI74" s="57"/>
-      <c r="AJ74" s="57"/>
-      <c r="AK74" s="57"/>
-      <c r="AL74" s="57"/>
-      <c r="AM74" s="57"/>
-      <c r="AN74" s="57"/>
-      <c r="AO74" s="57"/>
-      <c r="AP74" s="56"/>
+      <c r="AF74" s="36"/>
+      <c r="AG74" s="38"/>
+      <c r="AH74" s="38"/>
+      <c r="AI74" s="38"/>
+      <c r="AJ74" s="38"/>
+      <c r="AK74" s="38"/>
+      <c r="AL74" s="38"/>
+      <c r="AM74" s="38"/>
+      <c r="AN74" s="38"/>
+      <c r="AO74" s="38"/>
+      <c r="AP74" s="37"/>
     </row>
     <row r="75" spans="3:42" x14ac:dyDescent="0.4">
       <c r="I75" t="s">
@@ -29345,7 +29632,7 @@
         <v>287</v>
       </c>
       <c r="AH75" s="2"/>
-      <c r="AI75" s="58" t="s">
+      <c r="AI75" s="39" t="s">
         <v>293</v>
       </c>
       <c r="AJ75" s="2"/>
@@ -29374,14 +29661,14 @@
       <c r="AP76" s="3"/>
     </row>
     <row r="77" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O77" s="55" t="s">
+      <c r="O77" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="P77" s="56"/>
-      <c r="R77" s="55" t="s">
+      <c r="P77" s="37"/>
+      <c r="R77" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="S77" s="56"/>
+      <c r="S77" s="37"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="2" t="s">
         <v>295</v>
@@ -29397,22 +29684,22 @@
       <c r="AP77" s="3"/>
     </row>
     <row r="78" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O78" s="55"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="57"/>
-      <c r="U78" s="57"/>
-      <c r="V78" s="57"/>
-      <c r="W78" s="57"/>
-      <c r="X78" s="57"/>
-      <c r="Y78" s="57"/>
-      <c r="Z78" s="57"/>
-      <c r="AA78" s="57"/>
-      <c r="AB78" s="57"/>
-      <c r="AC78" s="57"/>
-      <c r="AD78" s="56"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="37"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
@@ -29442,10 +29729,10 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
-      <c r="AC79" s="53" t="s">
+      <c r="AC79" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="AD79" s="54"/>
+      <c r="AD79" s="35"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
@@ -29488,10 +29775,10 @@
       <c r="AP80" s="3"/>
     </row>
     <row r="81" spans="4:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O81" s="53" t="s">
+      <c r="O81" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="P81" s="54"/>
+      <c r="P81" s="35"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
@@ -29527,10 +29814,10 @@
       <c r="AJ83" s="2"/>
       <c r="AK83" s="2"/>
       <c r="AL83" s="2"/>
-      <c r="AM83" s="53" t="s">
+      <c r="AM83" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="AN83" s="54"/>
+      <c r="AN83" s="35"/>
       <c r="AO83" s="2"/>
       <c r="AP83" s="3"/>
     </row>
@@ -29556,6 +29843,9 @@
       <c r="E85" t="s">
         <v>244</v>
       </c>
+      <c r="J85" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="86" spans="4:42" x14ac:dyDescent="0.4">
       <c r="I86" t="s">
@@ -29572,6 +29862,9 @@
       <c r="E88" t="s">
         <v>251</v>
       </c>
+      <c r="K88" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="89" spans="4:42" x14ac:dyDescent="0.4">
       <c r="I89" t="s">
@@ -29596,6 +29889,9 @@
       <c r="O92" t="s">
         <v>260</v>
       </c>
+      <c r="AE92" s="32" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="93" spans="4:42" x14ac:dyDescent="0.4">
       <c r="I93" t="s">
@@ -29618,7 +29914,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:59" x14ac:dyDescent="0.4">
       <c r="I97" t="s">
         <v>263</v>
       </c>
@@ -29626,7 +29922,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:59" x14ac:dyDescent="0.4">
       <c r="D99" s="31" t="s">
         <v>269</v>
       </c>
@@ -29637,22 +29933,22 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:59" x14ac:dyDescent="0.4">
       <c r="I100" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:59" x14ac:dyDescent="0.4">
       <c r="I101" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:59" x14ac:dyDescent="0.4">
       <c r="L102" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C103" s="25" t="s">
         <v>271</v>
       </c>
@@ -29661,12 +29957,23 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:59" x14ac:dyDescent="0.4">
       <c r="C104" s="25"/>
       <c r="D104" s="31"/>
       <c r="L104" s="25"/>
-    </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="AW104" s="36"/>
+      <c r="AX104" s="38"/>
+      <c r="AY104" s="38"/>
+      <c r="AZ104" s="38"/>
+      <c r="BA104" s="38"/>
+      <c r="BB104" s="38"/>
+      <c r="BC104" s="38"/>
+      <c r="BD104" s="38"/>
+      <c r="BE104" s="38"/>
+      <c r="BF104" s="38"/>
+      <c r="BG104" s="37"/>
+    </row>
+    <row r="105" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D105" s="31" t="s">
         <v>270</v>
       </c>
@@ -29676,24 +29983,375 @@
       <c r="Q105" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AY105" s="2"/>
+      <c r="AZ105" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="BA105" s="2"/>
+      <c r="BB105" s="2"/>
+      <c r="BC105" s="2"/>
+      <c r="BD105" s="2"/>
+      <c r="BE105" s="2"/>
+      <c r="BF105" s="2"/>
+      <c r="BG105" s="3"/>
+    </row>
+    <row r="106" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I106" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="AF106" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG106" s="37"/>
+      <c r="AI106" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ106" s="37"/>
+      <c r="AS106" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT106" s="35"/>
+      <c r="AW106" s="1"/>
+      <c r="AX106" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY106" s="2"/>
+      <c r="AZ106" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BA106" s="2"/>
+      <c r="BB106" s="2"/>
+      <c r="BC106" s="2"/>
+      <c r="BD106" s="2"/>
+      <c r="BE106" s="2"/>
+      <c r="BF106" s="2"/>
+      <c r="BG106" s="3"/>
+    </row>
+    <row r="107" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I107" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="AF107" s="36"/>
+      <c r="AG107" s="38"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="38"/>
+      <c r="AL107" s="38"/>
+      <c r="AM107" s="38"/>
+      <c r="AN107" s="38"/>
+      <c r="AO107" s="38"/>
+      <c r="AP107" s="38"/>
+      <c r="AQ107" s="38"/>
+      <c r="AR107" s="38"/>
+      <c r="AS107" s="38"/>
+      <c r="AT107" s="38"/>
+      <c r="AU107" s="37"/>
+      <c r="AW107" s="1"/>
+      <c r="AX107" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY107" s="2"/>
+      <c r="AZ107" s="2"/>
+      <c r="BA107" s="2"/>
+      <c r="BB107" s="2"/>
+      <c r="BC107" s="2"/>
+      <c r="BD107" s="2"/>
+      <c r="BE107" s="2"/>
+      <c r="BF107" s="2"/>
+      <c r="BG107" s="3"/>
+    </row>
+    <row r="108" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I108" t="s">
         <v>278</v>
       </c>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
+      <c r="AK108" s="2"/>
+      <c r="AL108" s="2"/>
+      <c r="AM108" s="2"/>
+      <c r="AN108" s="2"/>
+      <c r="AO108" s="2"/>
+      <c r="AP108" s="2"/>
+      <c r="AQ108" s="2"/>
+      <c r="AR108" s="2"/>
+      <c r="AS108" s="2"/>
+      <c r="AT108" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU108" s="35"/>
+      <c r="AW108" s="1"/>
+      <c r="AX108" s="2"/>
+      <c r="AY108" s="2"/>
+      <c r="AZ108" s="2"/>
+      <c r="BA108" s="2"/>
+      <c r="BB108" s="2"/>
+      <c r="BC108" s="2"/>
+      <c r="BD108" s="2"/>
+      <c r="BE108" s="2"/>
+      <c r="BF108" s="2"/>
+      <c r="BG108" s="3"/>
+    </row>
+    <row r="109" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D109" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF109" s="4"/>
+      <c r="AG109" s="5"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+      <c r="AK109" s="5"/>
+      <c r="AL109" s="5"/>
+      <c r="AM109" s="5"/>
+      <c r="AN109" s="5"/>
+      <c r="AO109" s="5"/>
+      <c r="AP109" s="5"/>
+      <c r="AQ109" s="5"/>
+      <c r="AR109" s="5"/>
+      <c r="AS109" s="5"/>
+      <c r="AT109" s="5"/>
+      <c r="AU109" s="6"/>
+      <c r="AW109" s="1"/>
+      <c r="AX109" s="2"/>
+      <c r="AY109" s="2"/>
+      <c r="AZ109" s="2"/>
+      <c r="BA109" s="2"/>
+      <c r="BB109" s="2"/>
+      <c r="BC109" s="2"/>
+      <c r="BD109" s="2"/>
+      <c r="BE109" s="2"/>
+      <c r="BF109" s="2"/>
+      <c r="BG109" s="3"/>
+    </row>
+    <row r="110" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="E110" t="s">
+        <v>301</v>
+      </c>
+      <c r="G110" t="s">
+        <v>302</v>
+      </c>
+      <c r="T110" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW110" s="1"/>
+      <c r="AX110" s="2"/>
+      <c r="AY110" s="2"/>
+      <c r="AZ110" s="2"/>
+      <c r="BA110" s="2"/>
+      <c r="BB110" s="2"/>
+      <c r="BC110" s="2"/>
+      <c r="BD110" s="2"/>
+      <c r="BE110" s="2"/>
+      <c r="BF110" s="2"/>
+      <c r="BG110" s="3"/>
+    </row>
+    <row r="111" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="G111" t="s">
+        <v>251</v>
+      </c>
+      <c r="U111" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW111" s="1"/>
+      <c r="AX111" s="2"/>
+      <c r="AY111" s="2"/>
+      <c r="AZ111" s="2"/>
+      <c r="BA111" s="2"/>
+      <c r="BB111" s="2"/>
+      <c r="BC111" s="2"/>
+      <c r="BD111" s="2"/>
+      <c r="BE111" s="2"/>
+      <c r="BF111" s="2"/>
+      <c r="BG111" s="3"/>
+    </row>
+    <row r="112" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G112" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="U112" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW112" s="1"/>
+      <c r="AX112" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY112" s="2"/>
+      <c r="AZ112" s="2"/>
+      <c r="BA112" s="2"/>
+      <c r="BB112" s="2"/>
+      <c r="BC112" s="2"/>
+      <c r="BD112" s="2"/>
+      <c r="BE112" s="2"/>
+      <c r="BF112" s="2"/>
+      <c r="BG112" s="3"/>
+    </row>
+    <row r="113" spans="5:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U113" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW113" s="1"/>
+      <c r="AX113" s="2"/>
+      <c r="AY113" s="2"/>
+      <c r="AZ113" s="2"/>
+      <c r="BA113" s="2"/>
+      <c r="BB113" s="2"/>
+      <c r="BC113" s="2"/>
+      <c r="BD113" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="BE113" s="35"/>
+      <c r="BF113" s="2"/>
+      <c r="BG113" s="3"/>
+    </row>
+    <row r="114" spans="5:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AW114" s="4"/>
+      <c r="AX114" s="5"/>
+      <c r="AY114" s="5"/>
+      <c r="AZ114" s="5"/>
+      <c r="BA114" s="5"/>
+      <c r="BB114" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC114" s="5"/>
+      <c r="BD114" s="5"/>
+      <c r="BE114" s="5"/>
+      <c r="BF114" s="5"/>
+      <c r="BG114" s="6"/>
+    </row>
+    <row r="116" spans="5:59" x14ac:dyDescent="0.4">
+      <c r="E116" t="s">
+        <v>307</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="T116" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" spans="5:59" x14ac:dyDescent="0.4">
+      <c r="G117" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="U117" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="5:59" x14ac:dyDescent="0.4">
+      <c r="G118" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="U118" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="5:59" x14ac:dyDescent="0.4">
+      <c r="G119" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="U119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="120" spans="5:59" x14ac:dyDescent="0.4">
+      <c r="U120" t="s">
+        <v>312</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -29718,88 +30376,6 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29822,94 +30398,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -31267,92 +31843,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -32871,108 +33447,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="39" t="s">
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B31D447-3315-435E-AF02-DA2DB50B0A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30F306-2015-4ED2-BD34-6EC8C53B2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="300" windowWidth="25050" windowHeight="15015" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -2939,32 +2939,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本給管理</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>契約情報管理</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員ID</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -3215,6 +3189,32 @@
   </si>
   <si>
     <t>マスタ_厚生子育徴収率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨基本給管理</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑩契約情報管理</t>
+    <rPh sb="1" eb="3">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3700,17 +3700,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3727,11 +3718,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19284,20 +19284,20 @@
       <c r="N2" s="44"/>
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
       <c r="AC2" s="44" t="s">
         <v>8</v>
       </c>
@@ -19412,24 +19412,24 @@
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="58" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="58" t="s">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="54"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -19461,36 +19461,36 @@
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="48" t="s">
         <v>170</v>
       </c>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
-      <c r="L6" s="52">
+      <c r="L6" s="49">
         <v>180</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="52" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="52">
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="49">
         <v>7777</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="48" t="s">
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="50"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -19516,36 +19516,36 @@
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="48" t="s">
         <v>170</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
-      <c r="L7" s="52">
+      <c r="L7" s="49">
         <v>200</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="52" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="52">
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="49">
         <v>1234</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="48">
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="55">
         <v>2345</v>
       </c>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="50"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -19571,36 +19571,36 @@
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="48" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="52">
+      <c r="L8" s="49">
         <v>210</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="52" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="52">
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="49">
         <v>3456</v>
       </c>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="48">
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="55">
         <v>234</v>
       </c>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="50"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -19622,26 +19622,26 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="57"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="50"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -19661,26 +19661,26 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="57"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="50"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -19700,26 +19700,26 @@
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="57"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="50"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -19739,26 +19739,26 @@
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -19778,26 +19778,26 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="50"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -19817,26 +19817,26 @@
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="50"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -20492,69 +20492,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -20571,6 +20508,69 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22980,20 +22980,20 @@
       <c r="N2" s="44"/>
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
       <c r="AC2" s="44" t="s">
         <v>8</v>
       </c>
@@ -23104,22 +23104,22 @@
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="58" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="54"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -23147,35 +23147,35 @@
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="50"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -23186,35 +23186,35 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="H7" s="57"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="50"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="57"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -23225,35 +23225,35 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="50"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="57"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -23264,35 +23264,35 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="57"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="50"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="57"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -23303,35 +23303,35 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="57"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="50"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -23342,35 +23342,35 @@
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="57"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="50"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="57"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -23381,35 +23381,35 @@
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="50"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -23420,35 +23420,35 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="50"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="57"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -23459,35 +23459,35 @@
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="50"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -24087,64 +24087,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
@@ -24169,30 +24135,64 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25953,76 +25953,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -26035,6 +25965,76 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28173,8 +28173,8 @@
   </sheetPr>
   <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN94" sqref="AN94"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AW78" sqref="AW78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28259,20 +28259,20 @@
       <c r="N2" s="44"/>
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
       <c r="AC2" s="44" t="s">
         <v>8</v>
       </c>
@@ -28387,24 +28387,24 @@
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="58" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="58" t="s">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="54"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -28440,51 +28440,51 @@
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="48" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
-      <c r="L6" s="52">
+      <c r="L6" s="49">
         <v>255555</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="52">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="49">
         <v>6666</v>
       </c>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="52">
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="49">
         <v>7777</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="48" t="s">
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="48" t="s">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="48" t="s">
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="48" t="s">
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="50"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
@@ -28501,35 +28501,35 @@
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="H7" s="57"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="50"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="57"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -28540,35 +28540,35 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="50"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="57"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -28579,35 +28579,35 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="57"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="50"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="57"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -28618,35 +28618,35 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="57"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="50"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -28657,35 +28657,35 @@
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="57"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="50"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="57"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -28696,35 +28696,35 @@
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="50"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -28735,35 +28735,35 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="50"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="57"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -28774,35 +28774,35 @@
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="50"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -29622,18 +29622,18 @@
         <v>248</v>
       </c>
       <c r="O75" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="S75" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="AF75" s="1"/>
       <c r="AG75" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AH75" s="2"/>
       <c r="AI75" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AJ75" s="2"/>
       <c r="AK75" s="2"/>
@@ -29646,11 +29646,11 @@
     <row r="76" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AF76" s="1"/>
       <c r="AG76" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AH76" s="2"/>
       <c r="AI76" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AJ76" s="2"/>
       <c r="AK76" s="2"/>
@@ -29662,16 +29662,16 @@
     </row>
     <row r="77" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O77" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P77" s="37"/>
       <c r="R77" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S77" s="37"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
@@ -29715,7 +29715,7 @@
     <row r="79" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O79" s="1"/>
       <c r="P79" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
@@ -29730,7 +29730,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AD79" s="35"/>
       <c r="AF79" s="1"/>
@@ -29776,7 +29776,7 @@
     </row>
     <row r="81" spans="4:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O81" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P81" s="35"/>
       <c r="AF81" s="1"/>
@@ -29815,7 +29815,7 @@
       <c r="AK83" s="2"/>
       <c r="AL83" s="2"/>
       <c r="AM83" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN83" s="35"/>
       <c r="AO83" s="2"/>
@@ -29828,7 +29828,7 @@
       <c r="AI84" s="5"/>
       <c r="AJ84" s="5"/>
       <c r="AK84" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AL84" s="5"/>
       <c r="AM84" s="5"/>
@@ -29844,7 +29844,7 @@
         <v>244</v>
       </c>
       <c r="J85" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="4:42" x14ac:dyDescent="0.4">
@@ -29863,7 +29863,7 @@
         <v>251</v>
       </c>
       <c r="K88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="4:42" x14ac:dyDescent="0.4">
@@ -29890,7 +29890,7 @@
         <v>260</v>
       </c>
       <c r="AE92" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="4:42" x14ac:dyDescent="0.4">
@@ -29985,11 +29985,11 @@
       </c>
       <c r="AW105" s="1"/>
       <c r="AX105" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AY105" s="2"/>
       <c r="AZ105" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BA105" s="2"/>
       <c r="BB105" s="2"/>
@@ -30008,20 +30008,20 @@
       </c>
       <c r="AG106" s="37"/>
       <c r="AI106" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AJ106" s="37"/>
       <c r="AS106" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AT106" s="35"/>
       <c r="AW106" s="1"/>
       <c r="AX106" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AY106" s="2"/>
       <c r="AZ106" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BA106" s="2"/>
       <c r="BB106" s="2"/>
@@ -30053,7 +30053,7 @@
       <c r="AU107" s="37"/>
       <c r="AW107" s="1"/>
       <c r="AX107" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AY107" s="2"/>
       <c r="AZ107" s="2"/>
@@ -30071,7 +30071,7 @@
       </c>
       <c r="AF108" s="1"/>
       <c r="AG108" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
@@ -30086,7 +30086,7 @@
       <c r="AR108" s="2"/>
       <c r="AS108" s="2"/>
       <c r="AT108" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AU108" s="35"/>
       <c r="AW108" s="1"/>
@@ -30103,7 +30103,7 @@
     </row>
     <row r="109" spans="3:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D109" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF109" s="4"/>
       <c r="AG109" s="5"/>
@@ -30135,13 +30135,13 @@
     </row>
     <row r="110" spans="3:59" x14ac:dyDescent="0.4">
       <c r="E110" t="s">
+        <v>299</v>
+      </c>
+      <c r="G110" t="s">
+        <v>300</v>
+      </c>
+      <c r="T110" t="s">
         <v>301</v>
-      </c>
-      <c r="G110" t="s">
-        <v>302</v>
-      </c>
-      <c r="T110" t="s">
-        <v>303</v>
       </c>
       <c r="AW110" s="1"/>
       <c r="AX110" s="2"/>
@@ -30160,7 +30160,7 @@
         <v>251</v>
       </c>
       <c r="U111" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AW111" s="1"/>
       <c r="AX111" s="2"/>
@@ -30179,7 +30179,7 @@
         <v>246</v>
       </c>
       <c r="U112" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AW112" s="1"/>
       <c r="AX112" s="2" t="s">
@@ -30197,7 +30197,7 @@
     </row>
     <row r="113" spans="5:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U113" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AW113" s="1"/>
       <c r="AX113" s="2"/>
@@ -30207,7 +30207,7 @@
       <c r="BB113" s="2"/>
       <c r="BC113" s="2"/>
       <c r="BD113" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BE113" s="35"/>
       <c r="BF113" s="2"/>
@@ -30220,7 +30220,7 @@
       <c r="AZ114" s="5"/>
       <c r="BA114" s="5"/>
       <c r="BB114" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BC114" s="5"/>
       <c r="BD114" s="5"/>
@@ -30230,21 +30230,21 @@
     </row>
     <row r="116" spans="5:59" x14ac:dyDescent="0.4">
       <c r="E116" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>256</v>
       </c>
       <c r="T116" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="5:59" x14ac:dyDescent="0.4">
       <c r="G117" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="U117" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="5:59" x14ac:dyDescent="0.4">
@@ -30252,7 +30252,7 @@
         <v>261</v>
       </c>
       <c r="U118" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="5:59" x14ac:dyDescent="0.4">
@@ -30260,98 +30260,16 @@
         <v>265</v>
       </c>
       <c r="U119" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="5:59" x14ac:dyDescent="0.4">
       <c r="U120" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -30376,6 +30294,88 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30F306-2015-4ED2-BD34-6EC8C53B2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A79DDA-72E2-497C-BD2C-34D97D0F14F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="317">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -3214,6 +3214,19 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引先マスタ新規追加</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキサキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -14397,6 +14410,138 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>132523</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>252371</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11D476D-C9BA-866C-BFB9-B7FE66275264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8017566" y="21451957"/>
+          <a:ext cx="1536175" cy="1184413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>248480</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>231914</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>90296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD00EA3A-ACBD-EC52-25CF-B3FEEF9C63FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7860197" y="22727479"/>
+          <a:ext cx="3039717" cy="951687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>231914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>230355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3FA7B6-D535-B12B-05B5-8CCDDE7674C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951304" y="23820784"/>
+          <a:ext cx="4870174" cy="478832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28173,8 +28318,8 @@
   </sheetPr>
   <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AW78" sqref="AW78"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR95" sqref="AR95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29582,6 +29727,9 @@
       </c>
       <c r="O71" t="s">
         <v>282</v>
+      </c>
+      <c r="AB71" s="25" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="3:42" x14ac:dyDescent="0.4">

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -15157,7 +15157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="800100"/>
+          <a:off x="514350" y="771525"/>
           <a:ext cx="4886325" cy="5210175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15212,7 +15212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="981075"/>
+          <a:off x="838200" y="952500"/>
           <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15311,7 +15311,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="981075"/>
+          <a:off x="1695450" y="952500"/>
           <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15381,7 +15381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="1314450"/>
+          <a:off x="828675" y="1285875"/>
           <a:ext cx="771525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15480,7 +15480,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685925" y="1314450"/>
+          <a:off x="1685925" y="1285875"/>
           <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15566,7 +15566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2524125" y="1323975"/>
+          <a:off x="2524125" y="1295400"/>
           <a:ext cx="342900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15665,7 +15665,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="1647825"/>
+          <a:off x="838200" y="1619250"/>
           <a:ext cx="762000" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15764,7 +15764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="1647825"/>
+          <a:off x="1695450" y="1619250"/>
           <a:ext cx="762000" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15879,7 +15879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="1952625"/>
+          <a:off x="809625" y="1924050"/>
           <a:ext cx="771525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15978,7 +15978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162175" y="2305050"/>
+          <a:off x="2162175" y="2276475"/>
           <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16093,7 +16093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="2000250"/>
+          <a:off x="2238375" y="1971675"/>
           <a:ext cx="180975" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
@@ -16148,7 +16148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="819150" y="2333625"/>
+          <a:off x="819150" y="2305050"/>
           <a:ext cx="771525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16247,7 +16247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="2676525"/>
+          <a:off x="2171700" y="2647950"/>
           <a:ext cx="809625" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16349,7 +16349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="781050" y="3019425"/>
+          <a:off x="781050" y="2990850"/>
           <a:ext cx="1000125" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16448,7 +16448,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1914525" y="2943225"/>
+          <a:off x="1914525" y="2914650"/>
           <a:ext cx="962025" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16579,7 +16579,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="3495675"/>
+          <a:off x="876300" y="3467100"/>
           <a:ext cx="1123950" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16678,7 +16678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="3505200"/>
+          <a:off x="2181225" y="3476625"/>
           <a:ext cx="971550" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16825,7 +16825,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="3933825"/>
+          <a:off x="800100" y="3905250"/>
           <a:ext cx="1428750" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16924,7 +16924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="3952875"/>
+          <a:off x="2486025" y="3924300"/>
           <a:ext cx="1724025" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17071,7 +17071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="4391025"/>
+          <a:off x="838200" y="4362450"/>
           <a:ext cx="762000" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17170,7 +17170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="4324350"/>
+          <a:off x="2647950" y="4295775"/>
           <a:ext cx="762000" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17240,7 +17240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="4781550"/>
+          <a:off x="838200" y="4752975"/>
           <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17339,7 +17339,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="4781550"/>
+          <a:off x="1695450" y="4752975"/>
           <a:ext cx="2257425" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17402,6 +17402,40 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5257800" cy="4905375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="3648075"/>
+          <a:ext cx="5257800" cy="4905375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18881,7 +18915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" ht="95">
+    <row r="4" customHeight="1" ht="94">
       <c r="B4" s="54">
         <v>2</v>
       </c>
@@ -19152,7 +19186,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -19197,7 +19231,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -20562,7 +20596,7 @@
       <c r="AF40" s="5"/>
       <c r="AG40" s="13"/>
     </row>
-    <row r="41" ht="18">
+    <row r="41">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -20823,7 +20857,7 @@
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -20874,7 +20908,7 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -22013,7 +22047,7 @@
       <c r="AJ29" s="5"/>
       <c r="AK29" s="13"/>
     </row>
-    <row r="30" ht="18">
+    <row r="30">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -22259,7 +22293,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -22304,7 +22338,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -22649,7 +22683,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -22702,7 +22736,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -23063,7 +23097,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -23116,7 +23150,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -23469,7 +23503,7 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -23515,7 +23549,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -24639,7 +24673,7 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="13"/>
     </row>
-    <row r="33" ht="18">
+    <row r="33">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -24845,7 +24879,7 @@
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -24894,7 +24928,7 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -25934,7 +25968,7 @@
       <c r="AJ28" s="5"/>
       <c r="AK28" s="13"/>
     </row>
-    <row r="29" ht="18">
+    <row r="29">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -26209,7 +26243,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -26254,7 +26288,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -27815,7 +27849,7 @@
       <c r="AF45" s="5"/>
       <c r="AG45" s="13"/>
     </row>
-    <row r="46" ht="18">
+    <row r="46">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -28017,7 +28051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" ht="18">
+    <row r="32">
       <c r="B32" s="48" t="s">
         <v>8</v>
       </c>
@@ -28039,7 +28073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" ht="18">
+    <row r="33">
       <c r="B33" s="50">
         <v>1</v>
       </c>
@@ -28406,7 +28440,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -28451,7 +28485,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -29723,7 +29757,7 @@
       <c r="AF38" s="5"/>
       <c r="AG38" s="13"/>
     </row>
-    <row r="39" ht="18">
+    <row r="39">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -29976,7 +30010,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -30021,7 +30055,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -30424,7 +30458,7 @@
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -30475,7 +30509,7 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -31717,7 +31751,7 @@
       <c r="AJ32" s="5"/>
       <c r="AK32" s="13"/>
     </row>
-    <row r="33" ht="18">
+    <row r="33">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -31786,7 +31820,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" ht="18">
+    <row r="73">
       <c r="I73" t="s">
         <v>120</v>
       </c>
@@ -31833,7 +31867,7 @@
       <c r="AO75" s="5"/>
       <c r="AP75" s="13"/>
     </row>
-    <row r="76" ht="18">
+    <row r="76">
       <c r="AF76" s="4"/>
       <c r="AG76" s="5" t="s">
         <v>127</v>
@@ -31850,7 +31884,7 @@
       <c r="AO76" s="5"/>
       <c r="AP76" s="13"/>
     </row>
-    <row r="77" ht="18">
+    <row r="77">
       <c r="O77" s="42" t="s">
         <v>125</v>
       </c>
@@ -31873,7 +31907,7 @@
       <c r="AO77" s="5"/>
       <c r="AP77" s="13"/>
     </row>
-    <row r="78" ht="18">
+    <row r="78">
       <c r="O78" s="42"/>
       <c r="P78" s="44"/>
       <c r="Q78" s="44"/>
@@ -31902,7 +31936,7 @@
       <c r="AO78" s="5"/>
       <c r="AP78" s="13"/>
     </row>
-    <row r="79" ht="18">
+    <row r="79">
       <c r="O79" s="4"/>
       <c r="P79" s="5" t="s">
         <v>131</v>
@@ -31935,7 +31969,7 @@
       <c r="AO79" s="5"/>
       <c r="AP79" s="13"/>
     </row>
-    <row r="80" ht="18">
+    <row r="80">
       <c r="O80" s="10"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
@@ -31964,7 +31998,7 @@
       <c r="AO80" s="5"/>
       <c r="AP80" s="13"/>
     </row>
-    <row r="81" ht="18">
+    <row r="81">
       <c r="O81" s="45" t="s">
         <v>133</v>
       </c>
@@ -31981,7 +32015,7 @@
       <c r="AO81" s="5"/>
       <c r="AP81" s="13"/>
     </row>
-    <row r="82" ht="18">
+    <row r="82">
       <c r="AF82" s="4"/>
       <c r="AG82" s="5" t="s">
         <v>100</v>
@@ -31996,7 +32030,7 @@
       <c r="AO82" s="5"/>
       <c r="AP82" s="13"/>
     </row>
-    <row r="83" ht="18">
+    <row r="83">
       <c r="AF83" s="4"/>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
@@ -32011,7 +32045,7 @@
       <c r="AO83" s="5"/>
       <c r="AP83" s="13"/>
     </row>
-    <row r="84" ht="18">
+    <row r="84">
       <c r="AF84" s="10"/>
       <c r="AG84" s="11"/>
       <c r="AH84" s="11"/>
@@ -32144,7 +32178,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" ht="18">
+    <row r="103">
       <c r="C103" s="30" t="s">
         <v>164</v>
       </c>
@@ -32167,7 +32201,7 @@
       <c r="BF104" s="44"/>
       <c r="BG104" s="43"/>
     </row>
-    <row r="105" ht="18">
+    <row r="105">
       <c r="D105" s="61" t="s">
         <v>166</v>
       </c>
@@ -32193,7 +32227,7 @@
       <c r="BF105" s="5"/>
       <c r="BG105" s="13"/>
     </row>
-    <row r="106" ht="18">
+    <row r="106">
       <c r="I106" t="s">
         <v>169</v>
       </c>
@@ -32225,7 +32259,7 @@
       <c r="BF106" s="5"/>
       <c r="BG106" s="13"/>
     </row>
-    <row r="107" ht="18">
+    <row r="107">
       <c r="I107" t="s">
         <v>171</v>
       </c>
@@ -32259,7 +32293,7 @@
       <c r="BF107" s="5"/>
       <c r="BG107" s="13"/>
     </row>
-    <row r="108" ht="18">
+    <row r="108">
       <c r="I108" t="s">
         <v>172</v>
       </c>
@@ -32295,7 +32329,7 @@
       <c r="BF108" s="5"/>
       <c r="BG108" s="13"/>
     </row>
-    <row r="109" ht="18">
+    <row r="109">
       <c r="D109" t="s">
         <v>173</v>
       </c>
@@ -32368,7 +32402,7 @@
       <c r="BF111" s="5"/>
       <c r="BG111" s="13"/>
     </row>
-    <row r="112" ht="18">
+    <row r="112">
       <c r="G112" s="40" t="s">
         <v>114</v>
       </c>
@@ -32389,7 +32423,7 @@
       <c r="BF112" s="5"/>
       <c r="BG112" s="13"/>
     </row>
-    <row r="113" ht="18">
+    <row r="113">
       <c r="U113" t="s">
         <v>178</v>
       </c>
@@ -32407,7 +32441,7 @@
       <c r="BF113" s="5"/>
       <c r="BG113" s="13"/>
     </row>
-    <row r="114" ht="18">
+    <row r="114">
       <c r="AW114" s="10"/>
       <c r="AX114" s="11"/>
       <c r="AY114" s="11"/>
@@ -32714,7 +32748,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -32767,7 +32801,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -33024,8 +33058,8 @@
   </sheetPr>
   <dimension ref="A1:AO158"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A31" tabSelected="1">
-      <selection activeCell="S49" sqref="S49" activeCellId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A16" tabSelected="1">
+      <selection activeCell="AP19" sqref="AP19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33153,7 +33187,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -33206,7 +33240,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>196</v>
       </c>
@@ -34098,7 +34132,7 @@
       <c r="AN86" s="12"/>
       <c r="AO86" s="12"/>
     </row>
-    <row r="87" ht="18">
+    <row r="87">
       <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
@@ -34151,7 +34185,7 @@
       <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
     </row>
-    <row r="88" ht="18">
+    <row r="88">
       <c r="A88" s="4" t="s">
         <v>261</v>
       </c>
@@ -34501,7 +34535,7 @@
       <c r="AN109" s="12"/>
       <c r="AO109" s="12"/>
     </row>
-    <row r="110" ht="18">
+    <row r="110">
       <c r="A110" s="3" t="s">
         <v>38</v>
       </c>
@@ -34554,7 +34588,7 @@
       <c r="AN110" s="3"/>
       <c r="AO110" s="3"/>
     </row>
-    <row r="111" ht="18">
+    <row r="111">
       <c r="A111" s="4" t="s">
         <v>277</v>
       </c>
@@ -34857,7 +34891,7 @@
       <c r="AN135" s="12"/>
       <c r="AO135" s="12"/>
     </row>
-    <row r="136" ht="18">
+    <row r="136">
       <c r="A136" s="3" t="s">
         <v>38</v>
       </c>
@@ -34910,7 +34944,7 @@
       <c r="AN136" s="3"/>
       <c r="AO136" s="3"/>
     </row>
-    <row r="137" ht="18">
+    <row r="137">
       <c r="A137" s="4" t="s">
         <v>291</v>
       </c>
@@ -35311,7 +35345,7 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -35357,7 +35391,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -36643,7 +36677,7 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="13"/>
     </row>
-    <row r="37" ht="18">
+    <row r="37">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0826D91-C66C-4BBC-ABE3-23EA4E3A05C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F70CB-AA6C-481E-BE89-6B14B8822C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="1000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1772,13 +1772,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1799,21 +1802,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1823,14 +1811,26 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19769,92 +19769,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -21375,102 +21375,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="54" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
@@ -21556,40 +21556,40 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="55" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="55" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="55" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="60"/>
       <c r="X5" s="12" t="s">
         <v>350</v>
       </c>
@@ -21611,46 +21611,46 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="58" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="59">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="55">
         <v>180</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="59" t="s">
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="59">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="55">
         <v>7777</v>
       </c>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="62" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
       <c r="AB6" s="16" t="s">
         <v>354</v>
       </c>
@@ -21666,46 +21666,46 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="58" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="59">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="55">
         <v>200</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="59" t="s">
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="59">
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="55">
         <v>1234</v>
       </c>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="59">
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="55">
         <v>2345</v>
       </c>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
       <c r="AB7" s="16" t="s">
         <v>354</v>
       </c>
@@ -21721,46 +21721,46 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="58" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="59">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="55">
         <v>210</v>
       </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="59" t="s">
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="59">
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="55">
         <v>3456</v>
       </c>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="59">
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="55">
         <v>234</v>
       </c>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="61"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
       <c r="AB8" s="16" t="s">
         <v>354</v>
       </c>
@@ -21776,32 +21776,32 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -21815,32 +21815,32 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -21854,32 +21854,32 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -21893,32 +21893,32 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -21932,32 +21932,32 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -21971,32 +21971,32 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -22652,13 +22652,64 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="B13:D13"/>
@@ -22673,64 +22724,13 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22753,92 +22753,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -23065,108 +23065,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -23409,108 +23409,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -23759,94 +23759,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
@@ -25071,100 +25071,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="54" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
@@ -25248,38 +25248,38 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="55" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="62" t="s">
         <v>385</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="55" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="60"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -25297,357 +25297,357 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="61"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="9"/>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="61"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="57"/>
       <c r="AK7" s="9"/>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="61"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="57"/>
       <c r="AK8" s="9"/>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="57"/>
       <c r="AK9" s="9"/>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="61"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
       <c r="AK10" s="9"/>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="61"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="57"/>
       <c r="AK11" s="9"/>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="61"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
       <c r="AK12" s="9"/>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="61"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="57"/>
       <c r="AK13" s="9"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
       <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:37">
@@ -26247,16 +26247,82 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -26277,82 +26343,16 @@
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26378,92 +26378,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -26578,46 +26578,46 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48" t="s">
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -26625,38 +26625,38 @@
     </row>
     <row r="7" spans="1:33" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -26664,34 +26664,34 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -26699,34 +26699,34 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -26734,34 +26734,34 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -26769,34 +26769,34 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -26804,34 +26804,34 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -26839,34 +26839,34 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -26874,34 +26874,34 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -26909,34 +26909,34 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -26944,34 +26944,34 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -26979,34 +26979,34 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -28113,6 +28113,76 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
     <mergeCell ref="X16:AC16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
@@ -28125,76 +28195,6 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28234,17 +28234,17 @@
       <c r="C32" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
       <c r="M32" s="35" t="s">
         <v>11</v>
       </c>
@@ -28256,17 +28256,17 @@
       <c r="C33" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="36" t="s">
         <v>14</v>
       </c>
@@ -28278,17 +28278,17 @@
       <c r="C34" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
       <c r="M34" s="37"/>
     </row>
     <row r="35" spans="2:13">
@@ -28298,17 +28298,17 @@
       <c r="C35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
       <c r="M35" s="37"/>
     </row>
     <row r="36" spans="2:13">
@@ -28318,17 +28318,17 @@
       <c r="C36" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
       <c r="M36" s="37"/>
     </row>
     <row r="37" spans="2:13">
@@ -28338,17 +28338,17 @@
       <c r="C37" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
       <c r="M37" s="37" t="s">
         <v>22</v>
       </c>
@@ -28456,92 +28456,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -29964,92 +29964,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -30333,8 +30333,8 @@
   </sheetPr>
   <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P117" sqref="P117"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T108" sqref="T108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -30350,102 +30350,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="54" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
@@ -30531,40 +30531,40 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="55" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="55" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="55" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="60"/>
       <c r="X5" s="12" t="s">
         <v>91</v>
       </c>
@@ -30590,379 +30590,379 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="58" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="59">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="55">
         <v>255555</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="59">
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="55">
         <v>6666</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="59">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="55">
         <v>7777</v>
       </c>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="62" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="62" t="s">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="62" t="s">
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="62" t="s">
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="61"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="61"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="57"/>
       <c r="AK7" s="9"/>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="61"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="57"/>
       <c r="AK8" s="9"/>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="57"/>
       <c r="AK9" s="9"/>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="61"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
       <c r="AK10" s="9"/>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="61"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="57"/>
       <c r="AK11" s="9"/>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="61"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
       <c r="AK12" s="9"/>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="61"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="57"/>
       <c r="AK13" s="9"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
       <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:37">
@@ -32406,7 +32406,7 @@
       </c>
     </row>
     <row r="117" spans="5:59">
-      <c r="G117" s="64"/>
+      <c r="G117" s="45"/>
       <c r="U117" t="s">
         <v>181</v>
       </c>
@@ -32434,16 +32434,82 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -32464,82 +32530,16 @@
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32565,108 +32565,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -32935,108 +32935,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -33880,108 +33880,108 @@
       <c r="AO84" s="10"/>
     </row>
     <row r="86" spans="1:41" ht="17.5">
-      <c r="A86" s="48" t="s">
+      <c r="A86" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="49" t="s">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="49"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="49"/>
-      <c r="V86" s="49"/>
-      <c r="W86" s="49"/>
-      <c r="X86" s="49"/>
-      <c r="Y86" s="49"/>
-      <c r="Z86" s="49"/>
-      <c r="AA86" s="49"/>
-      <c r="AB86" s="49"/>
-      <c r="AC86" s="49"/>
-      <c r="AD86" s="49"/>
-      <c r="AE86" s="49"/>
-      <c r="AF86" s="49"/>
-      <c r="AG86" s="49"/>
-      <c r="AH86" s="48" t="s">
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50"/>
+      <c r="R86" s="50"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50"/>
+      <c r="U86" s="50"/>
+      <c r="V86" s="50"/>
+      <c r="W86" s="50"/>
+      <c r="X86" s="50"/>
+      <c r="Y86" s="50"/>
+      <c r="Z86" s="50"/>
+      <c r="AA86" s="50"/>
+      <c r="AB86" s="50"/>
+      <c r="AC86" s="50"/>
+      <c r="AD86" s="50"/>
+      <c r="AE86" s="50"/>
+      <c r="AF86" s="50"/>
+      <c r="AG86" s="50"/>
+      <c r="AH86" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI86" s="48"/>
-      <c r="AJ86" s="48"/>
-      <c r="AK86" s="50" t="s">
+      <c r="AI86" s="49"/>
+      <c r="AJ86" s="49"/>
+      <c r="AK86" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="AL86" s="51"/>
-      <c r="AM86" s="51"/>
-      <c r="AN86" s="51"/>
-      <c r="AO86" s="51"/>
+      <c r="AL86" s="52"/>
+      <c r="AM86" s="52"/>
+      <c r="AN86" s="52"/>
+      <c r="AO86" s="52"/>
     </row>
     <row r="87" spans="1:41">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52" t="s">
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52" t="s">
+      <c r="G87" s="53"/>
+      <c r="H87" s="53"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="53"/>
+      <c r="L87" s="53"/>
+      <c r="M87" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52" t="s">
+      <c r="N87" s="53"/>
+      <c r="O87" s="53"/>
+      <c r="P87" s="53"/>
+      <c r="Q87" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="R87" s="52"/>
-      <c r="S87" s="52"/>
-      <c r="T87" s="52"/>
-      <c r="U87" s="52"/>
-      <c r="V87" s="52"/>
-      <c r="W87" s="52"/>
-      <c r="X87" s="52"/>
-      <c r="Y87" s="52"/>
-      <c r="Z87" s="52"/>
-      <c r="AA87" s="52"/>
-      <c r="AB87" s="52"/>
-      <c r="AC87" s="52"/>
-      <c r="AD87" s="52"/>
-      <c r="AE87" s="52"/>
-      <c r="AF87" s="52"/>
-      <c r="AG87" s="52"/>
-      <c r="AH87" s="52" t="s">
+      <c r="R87" s="53"/>
+      <c r="S87" s="53"/>
+      <c r="T87" s="53"/>
+      <c r="U87" s="53"/>
+      <c r="V87" s="53"/>
+      <c r="W87" s="53"/>
+      <c r="X87" s="53"/>
+      <c r="Y87" s="53"/>
+      <c r="Z87" s="53"/>
+      <c r="AA87" s="53"/>
+      <c r="AB87" s="53"/>
+      <c r="AC87" s="53"/>
+      <c r="AD87" s="53"/>
+      <c r="AE87" s="53"/>
+      <c r="AF87" s="53"/>
+      <c r="AG87" s="53"/>
+      <c r="AH87" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AI87" s="52"/>
-      <c r="AJ87" s="52"/>
-      <c r="AK87" s="52"/>
-      <c r="AL87" s="52"/>
-      <c r="AM87" s="52"/>
-      <c r="AN87" s="52"/>
-      <c r="AO87" s="52"/>
+      <c r="AI87" s="53"/>
+      <c r="AJ87" s="53"/>
+      <c r="AK87" s="53"/>
+      <c r="AL87" s="53"/>
+      <c r="AM87" s="53"/>
+      <c r="AN87" s="53"/>
+      <c r="AO87" s="53"/>
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="s">
@@ -34283,108 +34283,108 @@
       <c r="AO108" s="5"/>
     </row>
     <row r="109" spans="1:41" ht="17.5">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="49" t="s">
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
-      <c r="K109" s="49"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="49"/>
-      <c r="N109" s="49"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
-      <c r="Q109" s="49"/>
-      <c r="R109" s="49"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="49"/>
-      <c r="U109" s="49"/>
-      <c r="V109" s="49"/>
-      <c r="W109" s="49"/>
-      <c r="X109" s="49"/>
-      <c r="Y109" s="49"/>
-      <c r="Z109" s="49"/>
-      <c r="AA109" s="49"/>
-      <c r="AB109" s="49"/>
-      <c r="AC109" s="49"/>
-      <c r="AD109" s="49"/>
-      <c r="AE109" s="49"/>
-      <c r="AF109" s="49"/>
-      <c r="AG109" s="49"/>
-      <c r="AH109" s="48" t="s">
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="50"/>
+      <c r="Q109" s="50"/>
+      <c r="R109" s="50"/>
+      <c r="S109" s="50"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="50"/>
+      <c r="V109" s="50"/>
+      <c r="W109" s="50"/>
+      <c r="X109" s="50"/>
+      <c r="Y109" s="50"/>
+      <c r="Z109" s="50"/>
+      <c r="AA109" s="50"/>
+      <c r="AB109" s="50"/>
+      <c r="AC109" s="50"/>
+      <c r="AD109" s="50"/>
+      <c r="AE109" s="50"/>
+      <c r="AF109" s="50"/>
+      <c r="AG109" s="50"/>
+      <c r="AH109" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI109" s="48"/>
-      <c r="AJ109" s="48"/>
-      <c r="AK109" s="50" t="s">
+      <c r="AI109" s="49"/>
+      <c r="AJ109" s="49"/>
+      <c r="AK109" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="AL109" s="51"/>
-      <c r="AM109" s="51"/>
-      <c r="AN109" s="51"/>
-      <c r="AO109" s="51"/>
+      <c r="AL109" s="52"/>
+      <c r="AM109" s="52"/>
+      <c r="AN109" s="52"/>
+      <c r="AO109" s="52"/>
     </row>
     <row r="110" spans="1:41">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52" t="s">
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
-      <c r="K110" s="52"/>
-      <c r="L110" s="52"/>
-      <c r="M110" s="52" t="s">
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="53"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N110" s="52"/>
-      <c r="O110" s="52"/>
-      <c r="P110" s="52"/>
-      <c r="Q110" s="52" t="s">
+      <c r="N110" s="53"/>
+      <c r="O110" s="53"/>
+      <c r="P110" s="53"/>
+      <c r="Q110" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="R110" s="52"/>
-      <c r="S110" s="52"/>
-      <c r="T110" s="52"/>
-      <c r="U110" s="52"/>
-      <c r="V110" s="52"/>
-      <c r="W110" s="52"/>
-      <c r="X110" s="52"/>
-      <c r="Y110" s="52"/>
-      <c r="Z110" s="52"/>
-      <c r="AA110" s="52"/>
-      <c r="AB110" s="52"/>
-      <c r="AC110" s="52"/>
-      <c r="AD110" s="52"/>
-      <c r="AE110" s="52"/>
-      <c r="AF110" s="52"/>
-      <c r="AG110" s="52"/>
-      <c r="AH110" s="52" t="s">
+      <c r="R110" s="53"/>
+      <c r="S110" s="53"/>
+      <c r="T110" s="53"/>
+      <c r="U110" s="53"/>
+      <c r="V110" s="53"/>
+      <c r="W110" s="53"/>
+      <c r="X110" s="53"/>
+      <c r="Y110" s="53"/>
+      <c r="Z110" s="53"/>
+      <c r="AA110" s="53"/>
+      <c r="AB110" s="53"/>
+      <c r="AC110" s="53"/>
+      <c r="AD110" s="53"/>
+      <c r="AE110" s="53"/>
+      <c r="AF110" s="53"/>
+      <c r="AG110" s="53"/>
+      <c r="AH110" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AI110" s="52"/>
-      <c r="AJ110" s="52"/>
-      <c r="AK110" s="52"/>
-      <c r="AL110" s="52"/>
-      <c r="AM110" s="52"/>
-      <c r="AN110" s="52"/>
-      <c r="AO110" s="52"/>
+      <c r="AI110" s="53"/>
+      <c r="AJ110" s="53"/>
+      <c r="AK110" s="53"/>
+      <c r="AL110" s="53"/>
+      <c r="AM110" s="53"/>
+      <c r="AN110" s="53"/>
+      <c r="AO110" s="53"/>
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="s">
@@ -34639,108 +34639,108 @@
       <c r="AO133" s="10"/>
     </row>
     <row r="135" spans="1:41" ht="17.5">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="48"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="49" t="s">
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="49"/>
-      <c r="K135" s="49"/>
-      <c r="L135" s="49"/>
-      <c r="M135" s="49"/>
-      <c r="N135" s="49"/>
-      <c r="O135" s="49"/>
-      <c r="P135" s="49"/>
-      <c r="Q135" s="49"/>
-      <c r="R135" s="49"/>
-      <c r="S135" s="49"/>
-      <c r="T135" s="49"/>
-      <c r="U135" s="49"/>
-      <c r="V135" s="49"/>
-      <c r="W135" s="49"/>
-      <c r="X135" s="49"/>
-      <c r="Y135" s="49"/>
-      <c r="Z135" s="49"/>
-      <c r="AA135" s="49"/>
-      <c r="AB135" s="49"/>
-      <c r="AC135" s="49"/>
-      <c r="AD135" s="49"/>
-      <c r="AE135" s="49"/>
-      <c r="AF135" s="49"/>
-      <c r="AG135" s="49"/>
-      <c r="AH135" s="48" t="s">
+      <c r="G135" s="50"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="50"/>
+      <c r="K135" s="50"/>
+      <c r="L135" s="50"/>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="50"/>
+      <c r="Q135" s="50"/>
+      <c r="R135" s="50"/>
+      <c r="S135" s="50"/>
+      <c r="T135" s="50"/>
+      <c r="U135" s="50"/>
+      <c r="V135" s="50"/>
+      <c r="W135" s="50"/>
+      <c r="X135" s="50"/>
+      <c r="Y135" s="50"/>
+      <c r="Z135" s="50"/>
+      <c r="AA135" s="50"/>
+      <c r="AB135" s="50"/>
+      <c r="AC135" s="50"/>
+      <c r="AD135" s="50"/>
+      <c r="AE135" s="50"/>
+      <c r="AF135" s="50"/>
+      <c r="AG135" s="50"/>
+      <c r="AH135" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI135" s="48"/>
-      <c r="AJ135" s="48"/>
-      <c r="AK135" s="50" t="s">
+      <c r="AI135" s="49"/>
+      <c r="AJ135" s="49"/>
+      <c r="AK135" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="AL135" s="51"/>
-      <c r="AM135" s="51"/>
-      <c r="AN135" s="51"/>
-      <c r="AO135" s="51"/>
+      <c r="AL135" s="52"/>
+      <c r="AM135" s="52"/>
+      <c r="AN135" s="52"/>
+      <c r="AO135" s="52"/>
     </row>
     <row r="136" spans="1:41">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="52"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="52"/>
-      <c r="F136" s="52" t="s">
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G136" s="52"/>
-      <c r="H136" s="52"/>
-      <c r="I136" s="52"/>
-      <c r="J136" s="52"/>
-      <c r="K136" s="52"/>
-      <c r="L136" s="52"/>
-      <c r="M136" s="52" t="s">
+      <c r="G136" s="53"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53"/>
+      <c r="L136" s="53"/>
+      <c r="M136" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N136" s="52"/>
-      <c r="O136" s="52"/>
-      <c r="P136" s="52"/>
-      <c r="Q136" s="52" t="s">
+      <c r="N136" s="53"/>
+      <c r="O136" s="53"/>
+      <c r="P136" s="53"/>
+      <c r="Q136" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="R136" s="52"/>
-      <c r="S136" s="52"/>
-      <c r="T136" s="52"/>
-      <c r="U136" s="52"/>
-      <c r="V136" s="52"/>
-      <c r="W136" s="52"/>
-      <c r="X136" s="52"/>
-      <c r="Y136" s="52"/>
-      <c r="Z136" s="52"/>
-      <c r="AA136" s="52"/>
-      <c r="AB136" s="52"/>
-      <c r="AC136" s="52"/>
-      <c r="AD136" s="52"/>
-      <c r="AE136" s="52"/>
-      <c r="AF136" s="52"/>
-      <c r="AG136" s="52"/>
-      <c r="AH136" s="52" t="s">
+      <c r="R136" s="53"/>
+      <c r="S136" s="53"/>
+      <c r="T136" s="53"/>
+      <c r="U136" s="53"/>
+      <c r="V136" s="53"/>
+      <c r="W136" s="53"/>
+      <c r="X136" s="53"/>
+      <c r="Y136" s="53"/>
+      <c r="Z136" s="53"/>
+      <c r="AA136" s="53"/>
+      <c r="AB136" s="53"/>
+      <c r="AC136" s="53"/>
+      <c r="AD136" s="53"/>
+      <c r="AE136" s="53"/>
+      <c r="AF136" s="53"/>
+      <c r="AG136" s="53"/>
+      <c r="AH136" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AI136" s="52"/>
-      <c r="AJ136" s="52"/>
-      <c r="AK136" s="52"/>
-      <c r="AL136" s="52"/>
-      <c r="AM136" s="52"/>
-      <c r="AN136" s="52"/>
-      <c r="AO136" s="52"/>
+      <c r="AI136" s="53"/>
+      <c r="AJ136" s="53"/>
+      <c r="AK136" s="53"/>
+      <c r="AL136" s="53"/>
+      <c r="AM136" s="53"/>
+      <c r="AN136" s="53"/>
+      <c r="AO136" s="53"/>
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="s">
@@ -34976,6 +34976,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:AG86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="AK86:AO86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:AG87"/>
+    <mergeCell ref="AH87:AJ87"/>
+    <mergeCell ref="AK87:AO87"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:AG109"/>
+    <mergeCell ref="AH109:AJ109"/>
+    <mergeCell ref="AK109:AO109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:AG110"/>
+    <mergeCell ref="AH110:AJ110"/>
+    <mergeCell ref="AK110:AO110"/>
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="F135:AG135"/>
     <mergeCell ref="AH135:AJ135"/>
@@ -34986,36 +35016,6 @@
     <mergeCell ref="Q136:AG136"/>
     <mergeCell ref="AH136:AJ136"/>
     <mergeCell ref="AK136:AO136"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:AG109"/>
-    <mergeCell ref="AH109:AJ109"/>
-    <mergeCell ref="AK109:AO109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:AG110"/>
-    <mergeCell ref="AH110:AJ110"/>
-    <mergeCell ref="AK110:AO110"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:AG86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AK86:AO86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:AG87"/>
-    <mergeCell ref="AH87:AJ87"/>
-    <mergeCell ref="AK87:AO87"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35037,94 +35037,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F70CB-AA6C-481E-BE89-6B14B8822C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04661244-43DD-484D-91DD-B25DEB7616A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="1000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="418">
   <si>
     <t>No.</t>
   </si>
@@ -1302,6 +1302,10 @@
   </si>
   <si>
     <t>・支払額</t>
+  </si>
+  <si>
+    <t>2022/06/28  0:00:00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1729,9 +1733,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1802,6 +1803,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1811,26 +1827,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19575,178 +19579,178 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>44581</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="94" customHeight="1">
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>2</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>44601</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -19769,92 +19773,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -21375,102 +21379,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="64" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="53" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
@@ -21526,7 +21530,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="40" t="s">
         <v>345</v>
       </c>
       <c r="N4" s="2"/>
@@ -21556,40 +21560,40 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="62" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="62" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="62" t="s">
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="60"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="57"/>
       <c r="X5" s="12" t="s">
         <v>350</v>
       </c>
@@ -21611,46 +21615,46 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="63" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="55">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="59">
         <v>180</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="55" t="s">
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="55">
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="59">
         <v>7777</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="61" t="s">
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
       <c r="AB6" s="16" t="s">
         <v>354</v>
       </c>
@@ -21666,46 +21670,46 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="63" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="55">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="59">
         <v>200</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="55" t="s">
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="55">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="59">
         <v>1234</v>
       </c>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="55">
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="59">
         <v>2345</v>
       </c>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
       <c r="AB7" s="16" t="s">
         <v>354</v>
       </c>
@@ -21721,46 +21725,46 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1"/>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="63" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="55">
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="59">
         <v>210</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="55" t="s">
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="55">
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="59">
         <v>3456</v>
       </c>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="55">
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="59">
         <v>234</v>
       </c>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="16" t="s">
         <v>354</v>
       </c>
@@ -21776,32 +21780,32 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -21815,32 +21819,32 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -21854,32 +21858,32 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -21893,32 +21897,32 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -21932,32 +21936,32 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -21971,32 +21975,32 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -22652,36 +22656,41 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="T8:W8"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="B9:D9"/>
@@ -22696,41 +22705,36 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22753,92 +22757,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -23065,108 +23069,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -23409,108 +23413,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -23759,94 +23763,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
@@ -25071,100 +25075,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="64" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="53" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
@@ -25248,38 +25252,38 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="62" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="55" t="s">
         <v>385</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="62" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="60"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="57"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -25297,357 +25301,357 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="57"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="9"/>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="57"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="9"/>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="57"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="9"/>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="57"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="9"/>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="57"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="9"/>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="57"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="9"/>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="9"/>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="57"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="9"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:37">
@@ -26247,42 +26251,56 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -26303,56 +26321,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26378,92 +26382,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -26509,7 +26513,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="2"/>
@@ -26578,46 +26582,46 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49" t="s">
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49" t="s">
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -26625,38 +26629,38 @@
     </row>
     <row r="7" spans="1:33" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -26664,34 +26668,34 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -26699,34 +26703,34 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -26734,34 +26738,34 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -26769,34 +26773,34 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -26804,34 +26808,34 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -26839,34 +26843,34 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -26874,34 +26878,34 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -26909,34 +26913,34 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -26944,34 +26948,34 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -26979,34 +26983,34 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -28113,16 +28117,66 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -28135,66 +28189,16 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28213,143 +28217,143 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="34"/>
-    <col min="2" max="2" width="5.75" style="34" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9" style="34" customWidth="1"/>
-    <col min="5" max="12" width="9" style="34"/>
-    <col min="13" max="13" width="12.25" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="2" max="2" width="5.75" style="33" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9" style="33" customWidth="1"/>
+    <col min="5" max="12" width="9" style="33"/>
+    <col min="13" max="13" width="12.25" style="33" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="31" spans="1:13">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="35" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>1</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="36" t="s">
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>2</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="37"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>3</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="37"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>4</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="37"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="36"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>5</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="37" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -28456,92 +28460,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -29964,92 +29968,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -30333,8 +30337,8 @@
   </sheetPr>
   <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T108" sqref="T108"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -30350,102 +30354,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="64" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="53" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
@@ -30501,7 +30505,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="40" t="s">
         <v>84</v>
       </c>
       <c r="N4" s="2"/>
@@ -30531,40 +30535,40 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="62" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="62" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="62" t="s">
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="60"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="57"/>
       <c r="X5" s="12" t="s">
         <v>91</v>
       </c>
@@ -30590,379 +30594,379 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="63" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="55">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="59">
         <v>255555</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="55">
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="59">
         <v>6666</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="55">
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="59">
         <v>7777</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="61" t="s">
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="61" t="s">
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="61" t="s">
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="61" t="s">
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="57"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="57"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="9"/>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="57"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="9"/>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="57"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="9"/>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="57"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="9"/>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="57"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="9"/>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="9"/>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="57"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="9"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:37">
@@ -31734,7 +31738,7 @@
       </c>
     </row>
     <row r="71" spans="3:42">
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="41" t="s">
         <v>113</v>
       </c>
       <c r="E71" s="27" t="s">
@@ -31767,17 +31771,17 @@
       <c r="I74" t="s">
         <v>121</v>
       </c>
-      <c r="AF74" s="29"/>
-      <c r="AG74" s="31"/>
-      <c r="AH74" s="31"/>
-      <c r="AI74" s="31"/>
-      <c r="AJ74" s="31"/>
-      <c r="AK74" s="31"/>
-      <c r="AL74" s="31"/>
-      <c r="AM74" s="31"/>
-      <c r="AN74" s="31"/>
-      <c r="AO74" s="31"/>
-      <c r="AP74" s="30"/>
+      <c r="AF74" s="28"/>
+      <c r="AG74" s="30"/>
+      <c r="AH74" s="30"/>
+      <c r="AI74" s="30"/>
+      <c r="AJ74" s="30"/>
+      <c r="AK74" s="30"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="30"/>
+      <c r="AN74" s="30"/>
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="29"/>
     </row>
     <row r="75" spans="3:42">
       <c r="I75" t="s">
@@ -31794,7 +31798,7 @@
         <v>125</v>
       </c>
       <c r="AH75" s="2"/>
-      <c r="AI75" s="43" t="s">
+      <c r="AI75" s="42" t="s">
         <v>126</v>
       </c>
       <c r="AJ75" s="2"/>
@@ -31823,14 +31827,14 @@
       <c r="AP76" s="9"/>
     </row>
     <row r="77" spans="3:42">
-      <c r="O77" s="29" t="s">
+      <c r="O77" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="P77" s="30"/>
-      <c r="R77" s="29" t="s">
+      <c r="P77" s="29"/>
+      <c r="R77" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="S77" s="30"/>
+      <c r="S77" s="29"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="2" t="s">
         <v>130</v>
@@ -31846,22 +31850,22 @@
       <c r="AP77" s="9"/>
     </row>
     <row r="78" spans="3:42">
-      <c r="O78" s="29"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="31"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="31"/>
-      <c r="Z78" s="31"/>
-      <c r="AA78" s="31"/>
-      <c r="AB78" s="31"/>
-      <c r="AC78" s="31"/>
-      <c r="AD78" s="30"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="30"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="29"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
@@ -31891,10 +31895,10 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
-      <c r="AC79" s="32" t="s">
+      <c r="AC79" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AD79" s="33"/>
+      <c r="AD79" s="32"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
@@ -31937,10 +31941,10 @@
       <c r="AP80" s="9"/>
     </row>
     <row r="81" spans="1:42">
-      <c r="O81" s="32" t="s">
+      <c r="O81" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="P81" s="33"/>
+      <c r="P81" s="32"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
@@ -31976,10 +31980,10 @@
       <c r="AJ83" s="2"/>
       <c r="AK83" s="2"/>
       <c r="AL83" s="2"/>
-      <c r="AM83" s="32" t="s">
+      <c r="AM83" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="AN83" s="33"/>
+      <c r="AN83" s="32"/>
       <c r="AO83" s="2"/>
       <c r="AP83" s="9"/>
     </row>
@@ -31999,7 +32003,7 @@
       <c r="AP84" s="11"/>
     </row>
     <row r="85" spans="1:42">
-      <c r="D85" s="42" t="s">
+      <c r="D85" s="41" t="s">
         <v>136</v>
       </c>
       <c r="E85" t="s">
@@ -32018,7 +32022,7 @@
       </c>
     </row>
     <row r="88" spans="1:42">
-      <c r="D88" s="42" t="s">
+      <c r="D88" s="41" t="s">
         <v>141</v>
       </c>
       <c r="E88" t="s">
@@ -32042,13 +32046,13 @@
       </c>
     </row>
     <row r="92" spans="1:42">
-      <c r="A92" s="28">
-        <v>44740</v>
+      <c r="A92" s="64" t="s">
+        <v>417</v>
       </c>
       <c r="B92" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="41" t="s">
         <v>148</v>
       </c>
       <c r="E92" s="27" t="s">
@@ -32072,7 +32076,7 @@
       </c>
     </row>
     <row r="96" spans="1:42">
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="41" t="s">
         <v>154</v>
       </c>
       <c r="E96" s="27" t="s">
@@ -32091,7 +32095,7 @@
       </c>
     </row>
     <row r="99" spans="3:59">
-      <c r="D99" s="42" t="s">
+      <c r="D99" s="41" t="s">
         <v>159</v>
       </c>
       <c r="E99" s="27" t="s">
@@ -32127,20 +32131,20 @@
     <row r="104" spans="3:59">
       <c r="C104" s="18"/>
       <c r="L104" s="18"/>
-      <c r="AW104" s="29"/>
-      <c r="AX104" s="31"/>
-      <c r="AY104" s="31"/>
-      <c r="AZ104" s="31"/>
-      <c r="BA104" s="31"/>
-      <c r="BB104" s="31"/>
-      <c r="BC104" s="31"/>
-      <c r="BD104" s="31"/>
-      <c r="BE104" s="31"/>
-      <c r="BF104" s="31"/>
-      <c r="BG104" s="30"/>
+      <c r="AW104" s="28"/>
+      <c r="AX104" s="30"/>
+      <c r="AY104" s="30"/>
+      <c r="AZ104" s="30"/>
+      <c r="BA104" s="30"/>
+      <c r="BB104" s="30"/>
+      <c r="BC104" s="30"/>
+      <c r="BD104" s="30"/>
+      <c r="BE104" s="30"/>
+      <c r="BF104" s="30"/>
+      <c r="BG104" s="29"/>
     </row>
     <row r="105" spans="3:59">
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="41" t="s">
         <v>166</v>
       </c>
       <c r="E105" t="s">
@@ -32154,7 +32158,7 @@
         <v>125</v>
       </c>
       <c r="AY105" s="2"/>
-      <c r="AZ105" s="43" t="s">
+      <c r="AZ105" s="42" t="s">
         <v>126</v>
       </c>
       <c r="BA105" s="2"/>
@@ -32169,18 +32173,18 @@
       <c r="I106" t="s">
         <v>169</v>
       </c>
-      <c r="AF106" s="29" t="s">
+      <c r="AF106" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AG106" s="30"/>
-      <c r="AI106" s="29" t="s">
+      <c r="AG106" s="29"/>
+      <c r="AI106" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AJ106" s="30"/>
-      <c r="AS106" s="32" t="s">
+      <c r="AJ106" s="29"/>
+      <c r="AS106" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="AT106" s="33"/>
+      <c r="AT106" s="32"/>
       <c r="AW106" s="1"/>
       <c r="AX106" s="2" t="s">
         <v>127</v>
@@ -32201,22 +32205,22 @@
       <c r="I107" t="s">
         <v>171</v>
       </c>
-      <c r="AF107" s="29"/>
-      <c r="AG107" s="31"/>
-      <c r="AH107" s="31"/>
-      <c r="AI107" s="31"/>
-      <c r="AJ107" s="31"/>
-      <c r="AK107" s="31"/>
-      <c r="AL107" s="31"/>
-      <c r="AM107" s="31"/>
-      <c r="AN107" s="31"/>
-      <c r="AO107" s="31"/>
-      <c r="AP107" s="31"/>
-      <c r="AQ107" s="31"/>
-      <c r="AR107" s="31"/>
-      <c r="AS107" s="31"/>
-      <c r="AT107" s="31"/>
-      <c r="AU107" s="30"/>
+      <c r="AF107" s="28"/>
+      <c r="AG107" s="30"/>
+      <c r="AH107" s="30"/>
+      <c r="AI107" s="30"/>
+      <c r="AJ107" s="30"/>
+      <c r="AK107" s="30"/>
+      <c r="AL107" s="30"/>
+      <c r="AM107" s="30"/>
+      <c r="AN107" s="30"/>
+      <c r="AO107" s="30"/>
+      <c r="AP107" s="30"/>
+      <c r="AQ107" s="30"/>
+      <c r="AR107" s="30"/>
+      <c r="AS107" s="30"/>
+      <c r="AT107" s="30"/>
+      <c r="AU107" s="29"/>
       <c r="AW107" s="1"/>
       <c r="AX107" s="2" t="s">
         <v>130</v>
@@ -32251,10 +32255,10 @@
       <c r="AQ108" s="2"/>
       <c r="AR108" s="2"/>
       <c r="AS108" s="2"/>
-      <c r="AT108" s="32" t="s">
+      <c r="AT108" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AU108" s="33"/>
+      <c r="AU108" s="32"/>
       <c r="AW108" s="1"/>
       <c r="AX108" s="2"/>
       <c r="AY108" s="2"/>
@@ -32372,10 +32376,10 @@
       <c r="BA113" s="2"/>
       <c r="BB113" s="2"/>
       <c r="BC113" s="2"/>
-      <c r="BD113" s="32" t="s">
+      <c r="BD113" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="BE113" s="33"/>
+      <c r="BE113" s="32"/>
       <c r="BF113" s="2"/>
       <c r="BG113" s="9"/>
     </row>
@@ -32406,7 +32410,7 @@
       </c>
     </row>
     <row r="117" spans="5:59">
-      <c r="G117" s="45"/>
+      <c r="G117" s="44"/>
       <c r="U117" t="s">
         <v>181</v>
       </c>
@@ -32434,42 +32438,56 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -32490,56 +32508,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32565,108 +32569,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -32935,108 +32939,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
@@ -33880,108 +33884,108 @@
       <c r="AO84" s="10"/>
     </row>
     <row r="86" spans="1:41" ht="17.5">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="50" t="s">
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="50"/>
-      <c r="V86" s="50"/>
-      <c r="W86" s="50"/>
-      <c r="X86" s="50"/>
-      <c r="Y86" s="50"/>
-      <c r="Z86" s="50"/>
-      <c r="AA86" s="50"/>
-      <c r="AB86" s="50"/>
-      <c r="AC86" s="50"/>
-      <c r="AD86" s="50"/>
-      <c r="AE86" s="50"/>
-      <c r="AF86" s="50"/>
-      <c r="AG86" s="50"/>
-      <c r="AH86" s="49" t="s">
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="49"/>
+      <c r="V86" s="49"/>
+      <c r="W86" s="49"/>
+      <c r="X86" s="49"/>
+      <c r="Y86" s="49"/>
+      <c r="Z86" s="49"/>
+      <c r="AA86" s="49"/>
+      <c r="AB86" s="49"/>
+      <c r="AC86" s="49"/>
+      <c r="AD86" s="49"/>
+      <c r="AE86" s="49"/>
+      <c r="AF86" s="49"/>
+      <c r="AG86" s="49"/>
+      <c r="AH86" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI86" s="49"/>
-      <c r="AJ86" s="49"/>
-      <c r="AK86" s="51" t="s">
+      <c r="AI86" s="48"/>
+      <c r="AJ86" s="48"/>
+      <c r="AK86" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="AL86" s="52"/>
-      <c r="AM86" s="52"/>
-      <c r="AN86" s="52"/>
-      <c r="AO86" s="52"/>
+      <c r="AL86" s="51"/>
+      <c r="AM86" s="51"/>
+      <c r="AN86" s="51"/>
+      <c r="AO86" s="51"/>
     </row>
     <row r="87" spans="1:41">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53" t="s">
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53" t="s">
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="53" t="s">
+      <c r="N87" s="52"/>
+      <c r="O87" s="52"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="R87" s="53"/>
-      <c r="S87" s="53"/>
-      <c r="T87" s="53"/>
-      <c r="U87" s="53"/>
-      <c r="V87" s="53"/>
-      <c r="W87" s="53"/>
-      <c r="X87" s="53"/>
-      <c r="Y87" s="53"/>
-      <c r="Z87" s="53"/>
-      <c r="AA87" s="53"/>
-      <c r="AB87" s="53"/>
-      <c r="AC87" s="53"/>
-      <c r="AD87" s="53"/>
-      <c r="AE87" s="53"/>
-      <c r="AF87" s="53"/>
-      <c r="AG87" s="53"/>
-      <c r="AH87" s="53" t="s">
+      <c r="R87" s="52"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="52"/>
+      <c r="V87" s="52"/>
+      <c r="W87" s="52"/>
+      <c r="X87" s="52"/>
+      <c r="Y87" s="52"/>
+      <c r="Z87" s="52"/>
+      <c r="AA87" s="52"/>
+      <c r="AB87" s="52"/>
+      <c r="AC87" s="52"/>
+      <c r="AD87" s="52"/>
+      <c r="AE87" s="52"/>
+      <c r="AF87" s="52"/>
+      <c r="AG87" s="52"/>
+      <c r="AH87" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI87" s="53"/>
-      <c r="AJ87" s="53"/>
-      <c r="AK87" s="53"/>
-      <c r="AL87" s="53"/>
-      <c r="AM87" s="53"/>
-      <c r="AN87" s="53"/>
-      <c r="AO87" s="53"/>
+      <c r="AI87" s="52"/>
+      <c r="AJ87" s="52"/>
+      <c r="AK87" s="52"/>
+      <c r="AL87" s="52"/>
+      <c r="AM87" s="52"/>
+      <c r="AN87" s="52"/>
+      <c r="AO87" s="52"/>
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="s">
@@ -34283,108 +34287,108 @@
       <c r="AO108" s="5"/>
     </row>
     <row r="109" spans="1:41" ht="17.5">
-      <c r="A109" s="49" t="s">
+      <c r="A109" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="50" t="s">
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="50"/>
-      <c r="O109" s="50"/>
-      <c r="P109" s="50"/>
-      <c r="Q109" s="50"/>
-      <c r="R109" s="50"/>
-      <c r="S109" s="50"/>
-      <c r="T109" s="50"/>
-      <c r="U109" s="50"/>
-      <c r="V109" s="50"/>
-      <c r="W109" s="50"/>
-      <c r="X109" s="50"/>
-      <c r="Y109" s="50"/>
-      <c r="Z109" s="50"/>
-      <c r="AA109" s="50"/>
-      <c r="AB109" s="50"/>
-      <c r="AC109" s="50"/>
-      <c r="AD109" s="50"/>
-      <c r="AE109" s="50"/>
-      <c r="AF109" s="50"/>
-      <c r="AG109" s="50"/>
-      <c r="AH109" s="49" t="s">
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="49"/>
+      <c r="R109" s="49"/>
+      <c r="S109" s="49"/>
+      <c r="T109" s="49"/>
+      <c r="U109" s="49"/>
+      <c r="V109" s="49"/>
+      <c r="W109" s="49"/>
+      <c r="X109" s="49"/>
+      <c r="Y109" s="49"/>
+      <c r="Z109" s="49"/>
+      <c r="AA109" s="49"/>
+      <c r="AB109" s="49"/>
+      <c r="AC109" s="49"/>
+      <c r="AD109" s="49"/>
+      <c r="AE109" s="49"/>
+      <c r="AF109" s="49"/>
+      <c r="AG109" s="49"/>
+      <c r="AH109" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI109" s="49"/>
-      <c r="AJ109" s="49"/>
-      <c r="AK109" s="51" t="s">
+      <c r="AI109" s="48"/>
+      <c r="AJ109" s="48"/>
+      <c r="AK109" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="AL109" s="52"/>
-      <c r="AM109" s="52"/>
-      <c r="AN109" s="52"/>
-      <c r="AO109" s="52"/>
+      <c r="AL109" s="51"/>
+      <c r="AM109" s="51"/>
+      <c r="AN109" s="51"/>
+      <c r="AO109" s="51"/>
     </row>
     <row r="110" spans="1:41">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53" t="s">
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G110" s="53"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="53"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="53"/>
-      <c r="L110" s="53"/>
-      <c r="M110" s="53" t="s">
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N110" s="53"/>
-      <c r="O110" s="53"/>
-      <c r="P110" s="53"/>
-      <c r="Q110" s="53" t="s">
+      <c r="N110" s="52"/>
+      <c r="O110" s="52"/>
+      <c r="P110" s="52"/>
+      <c r="Q110" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="R110" s="53"/>
-      <c r="S110" s="53"/>
-      <c r="T110" s="53"/>
-      <c r="U110" s="53"/>
-      <c r="V110" s="53"/>
-      <c r="W110" s="53"/>
-      <c r="X110" s="53"/>
-      <c r="Y110" s="53"/>
-      <c r="Z110" s="53"/>
-      <c r="AA110" s="53"/>
-      <c r="AB110" s="53"/>
-      <c r="AC110" s="53"/>
-      <c r="AD110" s="53"/>
-      <c r="AE110" s="53"/>
-      <c r="AF110" s="53"/>
-      <c r="AG110" s="53"/>
-      <c r="AH110" s="53" t="s">
+      <c r="R110" s="52"/>
+      <c r="S110" s="52"/>
+      <c r="T110" s="52"/>
+      <c r="U110" s="52"/>
+      <c r="V110" s="52"/>
+      <c r="W110" s="52"/>
+      <c r="X110" s="52"/>
+      <c r="Y110" s="52"/>
+      <c r="Z110" s="52"/>
+      <c r="AA110" s="52"/>
+      <c r="AB110" s="52"/>
+      <c r="AC110" s="52"/>
+      <c r="AD110" s="52"/>
+      <c r="AE110" s="52"/>
+      <c r="AF110" s="52"/>
+      <c r="AG110" s="52"/>
+      <c r="AH110" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI110" s="53"/>
-      <c r="AJ110" s="53"/>
-      <c r="AK110" s="53"/>
-      <c r="AL110" s="53"/>
-      <c r="AM110" s="53"/>
-      <c r="AN110" s="53"/>
-      <c r="AO110" s="53"/>
+      <c r="AI110" s="52"/>
+      <c r="AJ110" s="52"/>
+      <c r="AK110" s="52"/>
+      <c r="AL110" s="52"/>
+      <c r="AM110" s="52"/>
+      <c r="AN110" s="52"/>
+      <c r="AO110" s="52"/>
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="s">
@@ -34639,108 +34643,108 @@
       <c r="AO133" s="10"/>
     </row>
     <row r="135" spans="1:41" ht="17.5">
-      <c r="A135" s="49" t="s">
+      <c r="A135" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="50" t="s">
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G135" s="50"/>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
-      <c r="J135" s="50"/>
-      <c r="K135" s="50"/>
-      <c r="L135" s="50"/>
-      <c r="M135" s="50"/>
-      <c r="N135" s="50"/>
-      <c r="O135" s="50"/>
-      <c r="P135" s="50"/>
-      <c r="Q135" s="50"/>
-      <c r="R135" s="50"/>
-      <c r="S135" s="50"/>
-      <c r="T135" s="50"/>
-      <c r="U135" s="50"/>
-      <c r="V135" s="50"/>
-      <c r="W135" s="50"/>
-      <c r="X135" s="50"/>
-      <c r="Y135" s="50"/>
-      <c r="Z135" s="50"/>
-      <c r="AA135" s="50"/>
-      <c r="AB135" s="50"/>
-      <c r="AC135" s="50"/>
-      <c r="AD135" s="50"/>
-      <c r="AE135" s="50"/>
-      <c r="AF135" s="50"/>
-      <c r="AG135" s="50"/>
-      <c r="AH135" s="49" t="s">
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
+      <c r="K135" s="49"/>
+      <c r="L135" s="49"/>
+      <c r="M135" s="49"/>
+      <c r="N135" s="49"/>
+      <c r="O135" s="49"/>
+      <c r="P135" s="49"/>
+      <c r="Q135" s="49"/>
+      <c r="R135" s="49"/>
+      <c r="S135" s="49"/>
+      <c r="T135" s="49"/>
+      <c r="U135" s="49"/>
+      <c r="V135" s="49"/>
+      <c r="W135" s="49"/>
+      <c r="X135" s="49"/>
+      <c r="Y135" s="49"/>
+      <c r="Z135" s="49"/>
+      <c r="AA135" s="49"/>
+      <c r="AB135" s="49"/>
+      <c r="AC135" s="49"/>
+      <c r="AD135" s="49"/>
+      <c r="AE135" s="49"/>
+      <c r="AF135" s="49"/>
+      <c r="AG135" s="49"/>
+      <c r="AH135" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI135" s="49"/>
-      <c r="AJ135" s="49"/>
-      <c r="AK135" s="51" t="s">
+      <c r="AI135" s="48"/>
+      <c r="AJ135" s="48"/>
+      <c r="AK135" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="AL135" s="52"/>
-      <c r="AM135" s="52"/>
-      <c r="AN135" s="52"/>
-      <c r="AO135" s="52"/>
+      <c r="AL135" s="51"/>
+      <c r="AM135" s="51"/>
+      <c r="AN135" s="51"/>
+      <c r="AO135" s="51"/>
     </row>
     <row r="136" spans="1:41">
-      <c r="A136" s="53" t="s">
+      <c r="A136" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53" t="s">
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G136" s="53"/>
-      <c r="H136" s="53"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="53"/>
-      <c r="M136" s="53" t="s">
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="52"/>
+      <c r="K136" s="52"/>
+      <c r="L136" s="52"/>
+      <c r="M136" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N136" s="53"/>
-      <c r="O136" s="53"/>
-      <c r="P136" s="53"/>
-      <c r="Q136" s="53" t="s">
+      <c r="N136" s="52"/>
+      <c r="O136" s="52"/>
+      <c r="P136" s="52"/>
+      <c r="Q136" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="R136" s="53"/>
-      <c r="S136" s="53"/>
-      <c r="T136" s="53"/>
-      <c r="U136" s="53"/>
-      <c r="V136" s="53"/>
-      <c r="W136" s="53"/>
-      <c r="X136" s="53"/>
-      <c r="Y136" s="53"/>
-      <c r="Z136" s="53"/>
-      <c r="AA136" s="53"/>
-      <c r="AB136" s="53"/>
-      <c r="AC136" s="53"/>
-      <c r="AD136" s="53"/>
-      <c r="AE136" s="53"/>
-      <c r="AF136" s="53"/>
-      <c r="AG136" s="53"/>
-      <c r="AH136" s="53" t="s">
+      <c r="R136" s="52"/>
+      <c r="S136" s="52"/>
+      <c r="T136" s="52"/>
+      <c r="U136" s="52"/>
+      <c r="V136" s="52"/>
+      <c r="W136" s="52"/>
+      <c r="X136" s="52"/>
+      <c r="Y136" s="52"/>
+      <c r="Z136" s="52"/>
+      <c r="AA136" s="52"/>
+      <c r="AB136" s="52"/>
+      <c r="AC136" s="52"/>
+      <c r="AD136" s="52"/>
+      <c r="AE136" s="52"/>
+      <c r="AF136" s="52"/>
+      <c r="AG136" s="52"/>
+      <c r="AH136" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI136" s="53"/>
-      <c r="AJ136" s="53"/>
-      <c r="AK136" s="53"/>
-      <c r="AL136" s="53"/>
-      <c r="AM136" s="53"/>
-      <c r="AN136" s="53"/>
-      <c r="AO136" s="53"/>
+      <c r="AI136" s="52"/>
+      <c r="AJ136" s="52"/>
+      <c r="AK136" s="52"/>
+      <c r="AL136" s="52"/>
+      <c r="AM136" s="52"/>
+      <c r="AN136" s="52"/>
+      <c r="AO136" s="52"/>
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="s">
@@ -34976,6 +34980,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:AG135"/>
+    <mergeCell ref="AH135:AJ135"/>
+    <mergeCell ref="AK135:AO135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:L136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="Q136:AG136"/>
+    <mergeCell ref="AH136:AJ136"/>
+    <mergeCell ref="AK136:AO136"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:AG109"/>
+    <mergeCell ref="AH109:AJ109"/>
+    <mergeCell ref="AK109:AO109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:AG110"/>
+    <mergeCell ref="AH110:AJ110"/>
+    <mergeCell ref="AK110:AO110"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:AG86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="AK86:AO86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:AG87"/>
+    <mergeCell ref="AH87:AJ87"/>
+    <mergeCell ref="AK87:AO87"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
@@ -34986,36 +35020,6 @@
     <mergeCell ref="Q2:AG2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:AG86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AK86:AO86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:AG87"/>
-    <mergeCell ref="AH87:AJ87"/>
-    <mergeCell ref="AK87:AO87"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:AG109"/>
-    <mergeCell ref="AH109:AJ109"/>
-    <mergeCell ref="AK109:AO109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:AG110"/>
-    <mergeCell ref="AH110:AJ110"/>
-    <mergeCell ref="AK110:AO110"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:AG135"/>
-    <mergeCell ref="AH135:AJ135"/>
-    <mergeCell ref="AK135:AO135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="F136:L136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="Q136:AG136"/>
-    <mergeCell ref="AH136:AJ136"/>
-    <mergeCell ref="AK136:AO136"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35037,94 +35041,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
@@ -35327,7 +35331,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>306</v>
       </c>
       <c r="F8" s="2"/>
@@ -35405,7 +35409,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>309</v>
       </c>
       <c r="F10" s="2"/>
@@ -35445,7 +35449,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>311</v>
       </c>
       <c r="F11" s="2"/>

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363942EF-05B2-4F8B-AE3C-5FCB1229C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E946F4-F255-4B45-8A3A-1C586DE5D4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="615" windowWidth="25725" windowHeight="14985" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -18,20 +18,19 @@
     <sheet name="環境" sheetId="1" r:id="rId3"/>
     <sheet name="ログイン" sheetId="2" r:id="rId4"/>
     <sheet name="オフィス画面" sheetId="8" r:id="rId5"/>
-    <sheet name="貸借対照表（BS)" sheetId="20" r:id="rId6"/>
-    <sheet name="給料管理(製造中)" sheetId="4" r:id="rId7"/>
-    <sheet name="一般経費(製造中）Old参照用" sheetId="15" r:id="rId8"/>
-    <sheet name="一般経費 (新)" sheetId="19" r:id="rId9"/>
-    <sheet name="給料更新（製造中）" sheetId="14" r:id="rId10"/>
-    <sheet name="社員情報変更" sheetId="17" r:id="rId11"/>
-    <sheet name="勤怠リスト" sheetId="16" r:id="rId12"/>
-    <sheet name="稼働時間入力20210305製造完" sheetId="11" r:id="rId13"/>
-    <sheet name="交通費入力20210305製造完" sheetId="10" r:id="rId14"/>
-    <sheet name="稼働確認20210305製造完" sheetId="12" r:id="rId15"/>
-    <sheet name="給料明細20210227完" sheetId="5" r:id="rId16"/>
-    <sheet name="→のシート削除予定かな" sheetId="9" r:id="rId17"/>
-    <sheet name="社員リスト" sheetId="6" r:id="rId18"/>
-    <sheet name="月度処理" sheetId="3" r:id="rId19"/>
+    <sheet name="給料管理(製造中)" sheetId="4" r:id="rId6"/>
+    <sheet name="一般経費(製造中）Old参照用" sheetId="15" r:id="rId7"/>
+    <sheet name="一般経費 (新)" sheetId="19" r:id="rId8"/>
+    <sheet name="給料更新（製造中）" sheetId="14" r:id="rId9"/>
+    <sheet name="社員情報変更" sheetId="17" r:id="rId10"/>
+    <sheet name="勤怠リスト" sheetId="16" r:id="rId11"/>
+    <sheet name="稼働時間入力20210305製造完" sheetId="11" r:id="rId12"/>
+    <sheet name="交通費入力20210305製造完" sheetId="10" r:id="rId13"/>
+    <sheet name="稼働確認20210305製造完" sheetId="12" r:id="rId14"/>
+    <sheet name="給料明細20210227完" sheetId="5" r:id="rId15"/>
+    <sheet name="→のシート削除予定かな" sheetId="9" r:id="rId16"/>
+    <sheet name="社員リスト" sheetId="6" r:id="rId17"/>
+    <sheet name="月度処理" sheetId="3" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="418">
   <si>
     <t>No.</t>
   </si>
@@ -1308,116 +1307,12 @@
     <t>2022/06/28  0:00:00</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
-  <si>
-    <t>2022/10/10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘定科目リスト</t>
-    <rPh sb="0" eb="2">
-      <t>ｶﾝｼﾞｮｳ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ｶﾓｸ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘定科目コード</t>
-    <rPh sb="0" eb="4">
-      <t>ｶﾝｼﾞｮｳｶﾓｸ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘定科目名称：</t>
-    <rPh sb="4" eb="6">
-      <t>ﾒｲｼｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>資本金</t>
-    <rPh sb="0" eb="3">
-      <t>ｼﾎﾝｷﾝ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目名称</t>
-    <rPh sb="0" eb="2">
-      <t>ｶﾓｸ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ﾒｲｼｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>など</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>１）マスタテーブルのリスト、新規、更新、削除が可能</t>
-    <rPh sb="14" eb="16">
-      <t>ｼﾝｷ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ｺｳｼﾝ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ｻｸｼﾞｮ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ｶﾉｳ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>対象テーブル：</t>
-    <rPh sb="0" eb="2">
-      <t>ﾀｲｼｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>マスタ_勘定科目、貸借対照表（BS）詳細、貸借対照表（BS）合計</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>２）帳票出力可能：</t>
-    <rPh sb="2" eb="6">
-      <t>ﾁｮｳﾋｮｳｼｭﾂﾘｮｸ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ｶﾉｳ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>貸借対照表</t>
-  </si>
-  <si>
-    <t>参照：</t>
-    <rPh sb="0" eb="2">
-      <t>ｻﾝｼｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>画面：（.Net）</t>
-    <phoneticPr fontId="9"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1475,21 +1370,6 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1769,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1903,6 +1783,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1912,41 +1807,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3467,155 +3332,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="720090"/>
-          <a:ext cx="485775" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前月</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8477250" y="691515"/>
-          <a:ext cx="485775" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>次</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>月</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4844,7 +4560,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7602,7 +7318,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9607,7 +9323,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9680,7 +9396,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9942,7 +9658,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11890,161 +11606,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644782D9-3DE8-4C10-953F-434C9FEDCC25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4514850" y="1895475"/>
-          <a:ext cx="514350" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B29F3B-B3F9-4D7E-B26A-CA95482E12A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="3152775"/>
-          <a:ext cx="4248150" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>217108</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>200930</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81030B9-8D92-480E-98AB-AEA39DBEC1ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942975" y="7553325"/>
-          <a:ext cx="6856033" cy="6392180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -14235,7 +13796,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15996,7 +15557,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18444,7 +18005,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18908,7 +18469,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19565,6 +19126,155 @@
             </a:rPr>
             <a:t>１２３４５</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="720090"/>
+          <a:ext cx="485775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="691515"/>
+          <a:ext cx="485775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20027,458 +19737,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AH37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="7"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="AH4" s="7"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH5" s="7"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH6" s="7"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH7" s="7"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH8" s="7"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH9" s="7"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH10" s="7"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH11" s="7"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="AH12" s="7"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>313</v>
-      </c>
-      <c r="E13" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH13" s="7"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH14" s="7"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AH15" s="7"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH16" s="7"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH17" s="7"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>319</v>
-      </c>
-      <c r="AH18" s="7"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="AH19" s="7"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="AH20" s="7"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="AH21" s="7"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="AH22" s="7"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="AH23" s="7"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH25" s="7"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" t="s">
-        <v>321</v>
-      </c>
-      <c r="AH26" s="7"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C27" t="s">
-        <v>323</v>
-      </c>
-      <c r="AH27" s="7"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH28" s="7"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="14"/>
-      <c r="AH29" s="7"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="8"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH31" s="7"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="AH32" s="7"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="AH33" s="7"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="AH34" s="7"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-      <c r="AH35" s="7"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="AH36" s="7"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG58"/>
   <sheetViews>
@@ -20979,7 +20237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
@@ -21067,20 +20325,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -21127,24 +20385,24 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="54" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="54" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="10" t="s">
         <v>350</v>
       </c>
@@ -21172,36 +20430,36 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="51" t="s">
         <v>306</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="47">
+      <c r="L6" s="52">
         <v>180</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="47" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="47">
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="52">
         <v>7777</v>
       </c>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="53" t="s">
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
       <c r="AB6" s="10" t="s">
         <v>354</v>
       </c>
@@ -21223,36 +20481,36 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="51" t="s">
         <v>306</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="47">
+      <c r="L7" s="52">
         <v>200</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="47" t="s">
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="47">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="52">
         <v>1234</v>
       </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="47">
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52">
         <v>2345</v>
       </c>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
       <c r="AB7" s="10" t="s">
         <v>354</v>
       </c>
@@ -21274,36 +20532,36 @@
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="51" t="s">
         <v>306</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="47">
+      <c r="L8" s="52">
         <v>210</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="47" t="s">
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="47">
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52">
         <v>3456</v>
       </c>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="47">
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52">
         <v>234</v>
       </c>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
       <c r="AB8" s="10" t="s">
         <v>354</v>
       </c>
@@ -21321,26 +20579,26 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -21356,26 +20614,26 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -21391,26 +20649,26 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
@@ -21426,26 +20684,26 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
@@ -21461,26 +20719,26 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -21496,26 +20754,26 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
@@ -21719,36 +20977,41 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="T8:W8"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="B9:D9"/>
@@ -21763,41 +21026,36 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21806,7 +21064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AG27"/>
   <sheetViews>
@@ -22118,7 +21376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
@@ -22462,7 +21720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
@@ -22812,7 +22070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
@@ -23219,7 +22477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -23241,7 +22499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -23331,20 +22589,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -23386,22 +22644,22 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="54" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -23429,35 +22687,35 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="50"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="49"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54"/>
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -23468,35 +22726,35 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="49"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="54"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -23507,35 +22765,35 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="49"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -23546,35 +22804,35 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="49"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="54"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -23585,35 +22843,35 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="49"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -23624,35 +22882,35 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="49"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="54"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -23663,35 +22921,35 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="54"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -23702,35 +22960,35 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -23741,35 +22999,35 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="54"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -23952,42 +23210,56 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -24008,56 +23280,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24066,7 +23324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -24901,16 +24159,66 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -24923,66 +24231,16 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26064,19 +25322,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF4C845-19AF-4301-A88C-97484E35A4D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="26" width="3.625" customWidth="1"/>
     <col min="27" max="27" width="3.75" customWidth="1"/>
     <col min="28" max="32" width="3.625" customWidth="1"/>
@@ -26124,8 +25382,8 @@
       </c>
       <c r="AD1" s="42"/>
       <c r="AE1" s="42"/>
-      <c r="AF1" s="57" t="s">
-        <v>418</v>
+      <c r="AF1" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="AG1" s="45"/>
       <c r="AH1" s="45"/>
@@ -26133,7 +25391,7 @@
       <c r="AJ1" s="45"/>
       <c r="AK1" s="45"/>
     </row>
-    <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>38</v>
       </c>
@@ -26156,20 +25414,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -26184,471 +25442,6 @@
       <c r="AJ2" s="46"/>
       <c r="AK2" s="46"/>
     </row>
-    <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK3" s="7"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="AK4" s="7"/>
-    </row>
-    <row r="5" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="AK5" s="7"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="23"/>
-      <c r="AK6" s="7"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="X7" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC7" s="7"/>
-      <c r="AK7" s="7"/>
-    </row>
-    <row r="8" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="X8" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC8" s="7"/>
-      <c r="AK8" s="7"/>
-    </row>
-    <row r="9" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="G9" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="58" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC9" s="7"/>
-      <c r="AK9" s="7"/>
-    </row>
-    <row r="10" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="23"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="58" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC10" s="7"/>
-      <c r="AK10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" s="26"/>
-      <c r="S11" s="1"/>
-      <c r="AC11" s="7"/>
-      <c r="AK11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="9"/>
-      <c r="S12" s="1"/>
-      <c r="AC12" s="7"/>
-      <c r="AK12" s="7"/>
-    </row>
-    <row r="13" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="S13" s="1"/>
-      <c r="AC13" s="7"/>
-      <c r="AK13" s="7"/>
-    </row>
-    <row r="14" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC14" s="7"/>
-      <c r="AK14" s="7"/>
-    </row>
-    <row r="15" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="Z15" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA15" s="26"/>
-      <c r="AC15" s="7"/>
-      <c r="AK15" s="7"/>
-    </row>
-    <row r="16" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="9"/>
-      <c r="AK16" s="7"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="M17" s="34"/>
-      <c r="AK17" s="7"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="AK18" s="7"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="8"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK20" s="7"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="AK21" s="7"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="C22" s="58" t="s">
-        <v>427</v>
-      </c>
-      <c r="AK22" s="7"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="D23" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="AK23" s="7"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="58" t="s">
-        <v>429</v>
-      </c>
-      <c r="AK24" s="7"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="D25" t="s">
-        <v>430</v>
-      </c>
-      <c r="AK25" s="7"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="AK26" s="7"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-      <c r="AK27" s="7"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="AK28" s="7"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="8"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="B31" s="58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-  </mergeCells>
-  <phoneticPr fontId="9"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:BG120"/>
-  <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="26" width="3.625" customWidth="1"/>
-    <col min="27" max="27" width="3.75" customWidth="1"/>
-    <col min="28" max="32" width="3.625" customWidth="1"/>
-    <col min="33" max="33" width="4.25" customWidth="1"/>
-    <col min="34" max="45" width="3.625" customWidth="1"/>
-    <col min="46" max="46" width="5.5" customWidth="1"/>
-    <col min="47" max="66" width="3.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-    </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>43</v>
@@ -26681,24 +25474,24 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="54" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="54" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="10" t="s">
         <v>91</v>
       </c>
@@ -26734,51 +25527,51 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="51" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="47">
+      <c r="L6" s="52">
         <v>255555</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="47">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="52">
         <v>6666</v>
       </c>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="47">
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="52">
         <v>7777</v>
       </c>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="53" t="s">
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="53" t="s">
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="53" t="s">
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="53" t="s">
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="49"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54"/>
       <c r="AK6" s="7" t="s">
         <v>100</v>
       </c>
@@ -26795,35 +25588,35 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="49"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="54"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -26834,35 +25627,35 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="49"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -26873,35 +25666,35 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="49"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="54"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -26912,35 +25705,35 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="49"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -26951,35 +25744,35 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="49"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="54"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -26990,35 +25783,35 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="54"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -27029,35 +25822,35 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -27068,35 +25861,35 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="54"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -27847,42 +26640,56 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -27903,56 +26710,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27961,7 +26754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -28331,7 +27124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -30314,6 +29107,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:AG135"/>
+    <mergeCell ref="AH135:AJ135"/>
+    <mergeCell ref="AK135:AO135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:L136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="Q136:AG136"/>
+    <mergeCell ref="AH136:AJ136"/>
+    <mergeCell ref="AK136:AO136"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:AG109"/>
+    <mergeCell ref="AH109:AJ109"/>
+    <mergeCell ref="AK109:AO109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:AG110"/>
+    <mergeCell ref="AH110:AJ110"/>
+    <mergeCell ref="AK110:AO110"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:AG86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="AK86:AO86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:AG87"/>
+    <mergeCell ref="AH87:AJ87"/>
+    <mergeCell ref="AK87:AO87"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
@@ -30324,39 +29147,461 @@
     <mergeCell ref="Q2:AG2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:AG86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AK86:AO86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:AG87"/>
-    <mergeCell ref="AH87:AJ87"/>
-    <mergeCell ref="AK87:AO87"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:AG109"/>
-    <mergeCell ref="AH109:AJ109"/>
-    <mergeCell ref="AK109:AO109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:AG110"/>
-    <mergeCell ref="AH110:AJ110"/>
-    <mergeCell ref="AK110:AO110"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:AG135"/>
-    <mergeCell ref="AH135:AJ135"/>
-    <mergeCell ref="AK135:AO135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="F136:L136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="Q136:AG136"/>
-    <mergeCell ref="AH136:AJ136"/>
-    <mergeCell ref="AK136:AO136"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AH37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="63" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="7"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="AH4" s="7"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH5" s="7"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" s="7"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH7" s="7"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH8" s="7"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH9" s="7"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH10" s="7"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH11" s="7"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="AH12" s="7"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH13" s="7"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH14" s="7"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH15" s="7"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH16" s="7"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH17" s="7"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH18" s="7"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="AH19" s="7"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="AH20" s="7"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="AH21" s="7"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="AH22" s="7"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="AH23" s="7"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="8"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH25" s="7"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH26" s="7"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH27" s="7"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH28" s="7"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="14"/>
+      <c r="AH29" s="7"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="8"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH31" s="7"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="AH32" s="7"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="AH33" s="7"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="AH34" s="7"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="AH35" s="7"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="AH36" s="7"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>